--- a/raw_data/UKNutritionalsRegularMozzarella.xlsx
+++ b/raw_data/UKNutritionalsRegularMozzarella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\dominos_pizza\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8B864-B4F8-4253-B965-F50AF5577579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE253E-C779-4177-93DB-790ACD667C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -916,6 +916,12 @@
       <b/>
       <u/>
       <sz val="3.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1130,9 +1136,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,6 +1225,9 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:X618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2138,7 @@
     <row r="10" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2165,7 +2171,7 @@
       <c r="W12" s="29"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
@@ -2230,7 +2236,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2305,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2368,7 +2374,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2437,7 +2443,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2508,7 +2514,7 @@
     <row r="18" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -2541,7 +2547,7 @@
       <c r="W20" s="29"/>
     </row>
     <row r="21" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
@@ -2606,7 +2612,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -2677,7 +2683,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>23</v>
@@ -2744,7 +2750,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="18"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -2811,7 +2817,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>31</v>
@@ -2878,8 +2884,8 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2947,8 +2953,8 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
@@ -3014,8 +3020,8 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
@@ -3081,7 +3087,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
@@ -3150,7 +3156,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -3217,7 +3223,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
@@ -3286,7 +3292,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="19"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -3355,7 +3361,7 @@
     <row r="33" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -3388,7 +3394,7 @@
       <c r="W35" s="29"/>
     </row>
     <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="21"/>
       <c r="C36" s="23"/>
       <c r="D36" s="1" t="s">
@@ -3453,7 +3459,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -3524,7 +3530,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
@@ -3591,7 +3597,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="18"/>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -3658,7 +3664,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="19"/>
       <c r="C40" s="7" t="s">
         <v>31</v>
@@ -3725,8 +3731,8 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3794,8 +3800,8 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="7" t="s">
         <v>23</v>
       </c>
@@ -3861,8 +3867,8 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3928,7 +3934,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="17" t="s">
         <v>33</v>
       </c>
@@ -3997,7 +4003,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="19"/>
       <c r="C45" s="3" t="s">
         <v>23</v>
@@ -4064,7 +4070,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="17" t="s">
         <v>34</v>
       </c>
@@ -4133,7 +4139,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="19"/>
       <c r="C47" s="3" t="s">
         <v>23</v>
@@ -4202,7 +4208,7 @@
     <row r="48" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -4235,7 +4241,7 @@
       <c r="W50" s="29"/>
     </row>
     <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="21"/>
       <c r="C51" s="23"/>
       <c r="D51" s="1" t="s">
@@ -4300,7 +4306,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="17" t="s">
@@ -4371,7 +4377,7 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="18"/>
       <c r="C53" s="7" t="s">
         <v>23</v>
@@ -4438,7 +4444,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="18"/>
       <c r="C54" s="3" t="s">
         <v>15</v>
@@ -4505,7 +4511,7 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="19"/>
       <c r="C55" s="7" t="s">
         <v>31</v>
@@ -4572,8 +4578,8 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="38" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4641,8 +4647,8 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="7" t="s">
         <v>23</v>
       </c>
@@ -4708,8 +4714,8 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3" t="s">
         <v>15</v>
       </c>
@@ -4775,7 +4781,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="17" t="s">
         <v>33</v>
       </c>
@@ -4844,7 +4850,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="19"/>
       <c r="C60" s="3" t="s">
         <v>23</v>
@@ -4911,7 +4917,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="42"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="17" t="s">
         <v>34</v>
       </c>
@@ -4980,7 +4986,7 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="19"/>
       <c r="C62" s="3" t="s">
         <v>23</v>
@@ -5049,7 +5055,7 @@
     <row r="63" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -5082,7 +5088,7 @@
       <c r="W65" s="29"/>
     </row>
     <row r="66" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="21"/>
       <c r="C66" s="23"/>
       <c r="D66" s="1" t="s">
@@ -5147,7 +5153,7 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -5218,7 +5224,7 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="18"/>
       <c r="C68" s="7" t="s">
         <v>23</v>
@@ -5285,7 +5291,7 @@
       </c>
     </row>
     <row r="69" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="18"/>
       <c r="C69" s="3" t="s">
         <v>15</v>
@@ -5352,7 +5358,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="19"/>
       <c r="C70" s="7" t="s">
         <v>31</v>
@@ -5419,8 +5425,8 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="38" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -5488,8 +5494,8 @@
       </c>
     </row>
     <row r="72" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
-      <c r="B72" s="39"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="7" t="s">
         <v>23</v>
       </c>
@@ -5555,8 +5561,8 @@
       </c>
     </row>
     <row r="73" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
@@ -5622,7 +5628,7 @@
       </c>
     </row>
     <row r="74" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="17" t="s">
         <v>33</v>
       </c>
@@ -5691,7 +5697,7 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="19"/>
       <c r="C75" s="3" t="s">
         <v>23</v>
@@ -5758,7 +5764,7 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="17" t="s">
         <v>34</v>
       </c>
@@ -5827,7 +5833,7 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="19"/>
       <c r="C77" s="3" t="s">
         <v>23</v>
@@ -5896,7 +5902,7 @@
     <row r="78" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -5929,7 +5935,7 @@
       <c r="W80" s="29"/>
     </row>
     <row r="81" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="21"/>
       <c r="C81" s="23"/>
       <c r="D81" s="1" t="s">
@@ -6267,7 +6273,7 @@
     </row>
     <row r="86" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -6336,7 +6342,7 @@
     </row>
     <row r="87" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="7" t="s">
         <v>23</v>
       </c>
@@ -6403,7 +6409,7 @@
     </row>
     <row r="88" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
-      <c r="B88" s="40"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="3" t="s">
         <v>15</v>
       </c>
@@ -6743,7 +6749,7 @@
     <row r="93" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -6776,7 +6782,7 @@
       <c r="W95" s="29"/>
     </row>
     <row r="96" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="21"/>
       <c r="C96" s="23"/>
       <c r="D96" s="1" t="s">
@@ -6841,7 +6847,7 @@
       </c>
     </row>
     <row r="97" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="17" t="s">
@@ -6912,7 +6918,7 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="18"/>
       <c r="C98" s="7" t="s">
         <v>23</v>
@@ -6979,7 +6985,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="36"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="18"/>
       <c r="C99" s="3" t="s">
         <v>15</v>
@@ -7046,7 +7052,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="36"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="19"/>
       <c r="C100" s="7" t="s">
         <v>31</v>
@@ -7113,8 +7119,8 @@
       </c>
     </row>
     <row r="101" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="36"/>
-      <c r="B101" s="38" t="s">
+      <c r="A101" s="35"/>
+      <c r="B101" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -7182,8 +7188,8 @@
       </c>
     </row>
     <row r="102" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="7" t="s">
         <v>23</v>
       </c>
@@ -7249,8 +7255,8 @@
       </c>
     </row>
     <row r="103" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="36"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="3" t="s">
         <v>15</v>
       </c>
@@ -7316,7 +7322,7 @@
       </c>
     </row>
     <row r="104" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="36"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="17" t="s">
         <v>33</v>
       </c>
@@ -7385,7 +7391,7 @@
       </c>
     </row>
     <row r="105" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="36"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="19"/>
       <c r="C105" s="3" t="s">
         <v>23</v>
@@ -7452,7 +7458,7 @@
       </c>
     </row>
     <row r="106" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="17" t="s">
         <v>34</v>
       </c>
@@ -7521,7 +7527,7 @@
       </c>
     </row>
     <row r="107" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="19"/>
       <c r="C107" s="3" t="s">
         <v>23</v>
@@ -7590,7 +7596,7 @@
     <row r="108" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -7623,7 +7629,7 @@
       <c r="W110" s="29"/>
     </row>
     <row r="111" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="21"/>
       <c r="C111" s="23"/>
       <c r="D111" s="1" t="s">
@@ -7688,7 +7694,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="44" t="s">
+      <c r="A112" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -7759,7 +7765,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
+      <c r="A113" s="44"/>
       <c r="B113" s="18"/>
       <c r="C113" s="7" t="s">
         <v>23</v>
@@ -7826,7 +7832,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
+      <c r="A114" s="44"/>
       <c r="B114" s="18"/>
       <c r="C114" s="3" t="s">
         <v>15</v>
@@ -7893,7 +7899,7 @@
       </c>
     </row>
     <row r="115" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="45"/>
+      <c r="A115" s="44"/>
       <c r="B115" s="19"/>
       <c r="C115" s="7" t="s">
         <v>31</v>
@@ -7960,8 +7966,8 @@
       </c>
     </row>
     <row r="116" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="45"/>
-      <c r="B116" s="38" t="s">
+      <c r="A116" s="44"/>
+      <c r="B116" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -8029,8 +8035,8 @@
       </c>
     </row>
     <row r="117" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="45"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="7" t="s">
         <v>23</v>
       </c>
@@ -8096,8 +8102,8 @@
       </c>
     </row>
     <row r="118" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="45"/>
-      <c r="B118" s="40"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="3" t="s">
         <v>15</v>
       </c>
@@ -8163,7 +8169,7 @@
       </c>
     </row>
     <row r="119" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="45"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="17" t="s">
         <v>33</v>
       </c>
@@ -8232,7 +8238,7 @@
       </c>
     </row>
     <row r="120" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="45"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="19"/>
       <c r="C120" s="3" t="s">
         <v>23</v>
@@ -8299,7 +8305,7 @@
       </c>
     </row>
     <row r="121" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="45"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="17" t="s">
         <v>34</v>
       </c>
@@ -8368,7 +8374,7 @@
       </c>
     </row>
     <row r="122" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="46"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="19"/>
       <c r="C122" s="3" t="s">
         <v>23</v>
@@ -8437,7 +8443,7 @@
     <row r="123" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="124" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="125" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -8470,7 +8476,7 @@
       <c r="W125" s="29"/>
     </row>
     <row r="126" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="21"/>
       <c r="C126" s="23"/>
       <c r="D126" s="1" t="s">
@@ -8535,7 +8541,7 @@
       </c>
     </row>
     <row r="127" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -8606,7 +8612,7 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="36"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="18"/>
       <c r="C128" s="7" t="s">
         <v>23</v>
@@ -8673,7 +8679,7 @@
       </c>
     </row>
     <row r="129" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="36"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="18"/>
       <c r="C129" s="3" t="s">
         <v>15</v>
@@ -8740,7 +8746,7 @@
       </c>
     </row>
     <row r="130" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="36"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="19"/>
       <c r="C130" s="7" t="s">
         <v>31</v>
@@ -8807,8 +8813,8 @@
       </c>
     </row>
     <row r="131" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="36"/>
-      <c r="B131" s="38" t="s">
+      <c r="A131" s="35"/>
+      <c r="B131" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -8876,8 +8882,8 @@
       </c>
     </row>
     <row r="132" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="36"/>
-      <c r="B132" s="39"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="7" t="s">
         <v>23</v>
       </c>
@@ -8943,8 +8949,8 @@
       </c>
     </row>
     <row r="133" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="36"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="3" t="s">
         <v>15</v>
       </c>
@@ -9010,7 +9016,7 @@
       </c>
     </row>
     <row r="134" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="36"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="17" t="s">
         <v>33</v>
       </c>
@@ -9079,7 +9085,7 @@
       </c>
     </row>
     <row r="135" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="36"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="19"/>
       <c r="C135" s="3" t="s">
         <v>23</v>
@@ -9146,7 +9152,7 @@
       </c>
     </row>
     <row r="136" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="36"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="17" t="s">
         <v>34</v>
       </c>
@@ -9215,7 +9221,7 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="37"/>
+      <c r="A137" s="36"/>
       <c r="B137" s="19"/>
       <c r="C137" s="3" t="s">
         <v>23</v>
@@ -9284,7 +9290,7 @@
     <row r="138" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="140" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -9317,7 +9323,7 @@
       <c r="W140" s="29"/>
     </row>
     <row r="141" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="21"/>
       <c r="C141" s="23"/>
       <c r="D141" s="1" t="s">
@@ -9382,7 +9388,7 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -9453,7 +9459,7 @@
       </c>
     </row>
     <row r="143" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="36"/>
+      <c r="A143" s="35"/>
       <c r="B143" s="18"/>
       <c r="C143" s="7" t="s">
         <v>23</v>
@@ -9520,7 +9526,7 @@
       </c>
     </row>
     <row r="144" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="36"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="18"/>
       <c r="C144" s="3" t="s">
         <v>15</v>
@@ -9587,7 +9593,7 @@
       </c>
     </row>
     <row r="145" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="36"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="19"/>
       <c r="C145" s="7" t="s">
         <v>31</v>
@@ -9654,8 +9660,8 @@
       </c>
     </row>
     <row r="146" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="36"/>
-      <c r="B146" s="38" t="s">
+      <c r="A146" s="35"/>
+      <c r="B146" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -9723,8 +9729,8 @@
       </c>
     </row>
     <row r="147" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="36"/>
-      <c r="B147" s="39"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="38"/>
       <c r="C147" s="7" t="s">
         <v>23</v>
       </c>
@@ -9790,8 +9796,8 @@
       </c>
     </row>
     <row r="148" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="36"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="3" t="s">
         <v>15</v>
       </c>
@@ -9857,7 +9863,7 @@
       </c>
     </row>
     <row r="149" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="36"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="17" t="s">
         <v>33</v>
       </c>
@@ -9926,7 +9932,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="36"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="19"/>
       <c r="C150" s="3" t="s">
         <v>23</v>
@@ -9993,7 +9999,7 @@
       </c>
     </row>
     <row r="151" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="36"/>
+      <c r="A151" s="35"/>
       <c r="B151" s="17" t="s">
         <v>34</v>
       </c>
@@ -10062,7 +10068,7 @@
       </c>
     </row>
     <row r="152" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="37"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="19"/>
       <c r="C152" s="3" t="s">
         <v>23</v>
@@ -10131,7 +10137,7 @@
     <row r="153" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="155" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -10164,7 +10170,7 @@
       <c r="W155" s="29"/>
     </row>
     <row r="156" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="34"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="21"/>
       <c r="C156" s="23"/>
       <c r="D156" s="1" t="s">
@@ -10229,7 +10235,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -10300,7 +10306,7 @@
       </c>
     </row>
     <row r="158" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="48"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="18"/>
       <c r="C158" s="7" t="s">
         <v>23</v>
@@ -10367,7 +10373,7 @@
       </c>
     </row>
     <row r="159" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="48"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="18"/>
       <c r="C159" s="3" t="s">
         <v>15</v>
@@ -10434,7 +10440,7 @@
       </c>
     </row>
     <row r="160" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="48"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="19"/>
       <c r="C160" s="7" t="s">
         <v>31</v>
@@ -10501,8 +10507,8 @@
       </c>
     </row>
     <row r="161" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="48"/>
-      <c r="B161" s="38" t="s">
+      <c r="A161" s="47"/>
+      <c r="B161" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -10570,8 +10576,8 @@
       </c>
     </row>
     <row r="162" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="48"/>
-      <c r="B162" s="39"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="38"/>
       <c r="C162" s="7" t="s">
         <v>23</v>
       </c>
@@ -10637,8 +10643,8 @@
       </c>
     </row>
     <row r="163" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="48"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="3" t="s">
         <v>15</v>
       </c>
@@ -10704,7 +10710,7 @@
       </c>
     </row>
     <row r="164" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="48"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="17" t="s">
         <v>33</v>
       </c>
@@ -10773,7 +10779,7 @@
       </c>
     </row>
     <row r="165" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="48"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="19"/>
       <c r="C165" s="3" t="s">
         <v>23</v>
@@ -10840,7 +10846,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="48"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="17" t="s">
         <v>34</v>
       </c>
@@ -10909,7 +10915,7 @@
       </c>
     </row>
     <row r="167" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="49"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="19"/>
       <c r="C167" s="3" t="s">
         <v>23</v>
@@ -10978,7 +10984,7 @@
     <row r="168" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="169" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="170" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B170" s="20" t="s">
@@ -11011,7 +11017,7 @@
       <c r="W170" s="29"/>
     </row>
     <row r="171" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="21"/>
       <c r="C171" s="23"/>
       <c r="D171" s="1" t="s">
@@ -11076,7 +11082,7 @@
       </c>
     </row>
     <row r="172" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -11147,7 +11153,7 @@
       </c>
     </row>
     <row r="173" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="48"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="18"/>
       <c r="C173" s="7" t="s">
         <v>23</v>
@@ -11214,7 +11220,7 @@
       </c>
     </row>
     <row r="174" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="48"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="18"/>
       <c r="C174" s="3" t="s">
         <v>15</v>
@@ -11281,7 +11287,7 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="48"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="19"/>
       <c r="C175" s="7" t="s">
         <v>31</v>
@@ -11348,8 +11354,8 @@
       </c>
     </row>
     <row r="176" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="48"/>
-      <c r="B176" s="38" t="s">
+      <c r="A176" s="47"/>
+      <c r="B176" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -11417,8 +11423,8 @@
       </c>
     </row>
     <row r="177" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="48"/>
-      <c r="B177" s="39"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="38"/>
       <c r="C177" s="7" t="s">
         <v>23</v>
       </c>
@@ -11484,8 +11490,8 @@
       </c>
     </row>
     <row r="178" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="48"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="3" t="s">
         <v>15</v>
       </c>
@@ -11551,7 +11557,7 @@
       </c>
     </row>
     <row r="179" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="48"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="17" t="s">
         <v>33</v>
       </c>
@@ -11620,7 +11626,7 @@
       </c>
     </row>
     <row r="180" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="48"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="19"/>
       <c r="C180" s="3" t="s">
         <v>23</v>
@@ -11687,7 +11693,7 @@
       </c>
     </row>
     <row r="181" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="48"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="17" t="s">
         <v>34</v>
       </c>
@@ -11756,7 +11762,7 @@
       </c>
     </row>
     <row r="182" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="49"/>
+      <c r="A182" s="48"/>
       <c r="B182" s="19"/>
       <c r="C182" s="3" t="s">
         <v>23</v>
@@ -11825,7 +11831,7 @@
     <row r="183" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="184" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="185" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -11858,7 +11864,7 @@
       <c r="W185" s="29"/>
     </row>
     <row r="186" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="34"/>
+      <c r="A186" s="33"/>
       <c r="B186" s="21"/>
       <c r="C186" s="23"/>
       <c r="D186" s="1" t="s">
@@ -11923,7 +11929,7 @@
       </c>
     </row>
     <row r="187" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B187" s="17" t="s">
@@ -11994,7 +12000,7 @@
       </c>
     </row>
     <row r="188" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="36"/>
+      <c r="A188" s="35"/>
       <c r="B188" s="18"/>
       <c r="C188" s="7" t="s">
         <v>23</v>
@@ -12061,7 +12067,7 @@
       </c>
     </row>
     <row r="189" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="36"/>
+      <c r="A189" s="35"/>
       <c r="B189" s="18"/>
       <c r="C189" s="3" t="s">
         <v>15</v>
@@ -12128,7 +12134,7 @@
       </c>
     </row>
     <row r="190" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="36"/>
+      <c r="A190" s="35"/>
       <c r="B190" s="19"/>
       <c r="C190" s="7" t="s">
         <v>31</v>
@@ -12195,8 +12201,8 @@
       </c>
     </row>
     <row r="191" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="36"/>
-      <c r="B191" s="38" t="s">
+      <c r="A191" s="35"/>
+      <c r="B191" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -12264,8 +12270,8 @@
       </c>
     </row>
     <row r="192" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="36"/>
-      <c r="B192" s="39"/>
+      <c r="A192" s="35"/>
+      <c r="B192" s="38"/>
       <c r="C192" s="7" t="s">
         <v>23</v>
       </c>
@@ -12331,8 +12337,8 @@
       </c>
     </row>
     <row r="193" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="36"/>
-      <c r="B193" s="40"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="3" t="s">
         <v>15</v>
       </c>
@@ -12398,7 +12404,7 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="36"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="17" t="s">
         <v>33</v>
       </c>
@@ -12467,7 +12473,7 @@
       </c>
     </row>
     <row r="195" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="36"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="19"/>
       <c r="C195" s="3" t="s">
         <v>23</v>
@@ -12534,7 +12540,7 @@
       </c>
     </row>
     <row r="196" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="36"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="17" t="s">
         <v>34</v>
       </c>
@@ -12603,7 +12609,7 @@
       </c>
     </row>
     <row r="197" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="37"/>
+      <c r="A197" s="36"/>
       <c r="B197" s="19"/>
       <c r="C197" s="3" t="s">
         <v>23</v>
@@ -12672,7 +12678,7 @@
     <row r="198" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="199" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="33" t="s">
+      <c r="A200" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="20" t="s">
@@ -12705,7 +12711,7 @@
       <c r="W200" s="29"/>
     </row>
     <row r="201" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="34"/>
+      <c r="A201" s="33"/>
       <c r="B201" s="21"/>
       <c r="C201" s="23"/>
       <c r="D201" s="1" t="s">
@@ -12770,7 +12776,7 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -12841,7 +12847,7 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="48"/>
+      <c r="A203" s="47"/>
       <c r="B203" s="18"/>
       <c r="C203" s="7" t="s">
         <v>23</v>
@@ -12908,7 +12914,7 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="48"/>
+      <c r="A204" s="47"/>
       <c r="B204" s="18"/>
       <c r="C204" s="3" t="s">
         <v>15</v>
@@ -12975,7 +12981,7 @@
       </c>
     </row>
     <row r="205" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="48"/>
+      <c r="A205" s="47"/>
       <c r="B205" s="19"/>
       <c r="C205" s="7" t="s">
         <v>31</v>
@@ -13042,8 +13048,8 @@
       </c>
     </row>
     <row r="206" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="48"/>
-      <c r="B206" s="38" t="s">
+      <c r="A206" s="47"/>
+      <c r="B206" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -13111,8 +13117,8 @@
       </c>
     </row>
     <row r="207" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="48"/>
-      <c r="B207" s="39"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="38"/>
       <c r="C207" s="7" t="s">
         <v>23</v>
       </c>
@@ -13178,8 +13184,8 @@
       </c>
     </row>
     <row r="208" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="48"/>
-      <c r="B208" s="40"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="3" t="s">
         <v>15</v>
       </c>
@@ -13245,7 +13251,7 @@
       </c>
     </row>
     <row r="209" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="48"/>
+      <c r="A209" s="47"/>
       <c r="B209" s="17" t="s">
         <v>33</v>
       </c>
@@ -13314,7 +13320,7 @@
       </c>
     </row>
     <row r="210" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="48"/>
+      <c r="A210" s="47"/>
       <c r="B210" s="19"/>
       <c r="C210" s="3" t="s">
         <v>23</v>
@@ -13381,7 +13387,7 @@
       </c>
     </row>
     <row r="211" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="48"/>
+      <c r="A211" s="47"/>
       <c r="B211" s="17" t="s">
         <v>34</v>
       </c>
@@ -13450,7 +13456,7 @@
       </c>
     </row>
     <row r="212" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="49"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="19"/>
       <c r="C212" s="3" t="s">
         <v>23</v>
@@ -13519,7 +13525,7 @@
     <row r="213" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="33" t="s">
+      <c r="A215" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B215" s="20" t="s">
@@ -13552,7 +13558,7 @@
       <c r="W215" s="29"/>
     </row>
     <row r="216" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="34"/>
+      <c r="A216" s="33"/>
       <c r="B216" s="21"/>
       <c r="C216" s="23"/>
       <c r="D216" s="1" t="s">
@@ -13617,7 +13623,7 @@
       </c>
     </row>
     <row r="217" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="35" t="s">
+      <c r="A217" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B217" s="17" t="s">
@@ -13688,7 +13694,7 @@
       </c>
     </row>
     <row r="218" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="36"/>
+      <c r="A218" s="35"/>
       <c r="B218" s="18"/>
       <c r="C218" s="7" t="s">
         <v>23</v>
@@ -13755,7 +13761,7 @@
       </c>
     </row>
     <row r="219" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="36"/>
+      <c r="A219" s="35"/>
       <c r="B219" s="18"/>
       <c r="C219" s="3" t="s">
         <v>15</v>
@@ -13822,7 +13828,7 @@
       </c>
     </row>
     <row r="220" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="36"/>
+      <c r="A220" s="35"/>
       <c r="B220" s="19"/>
       <c r="C220" s="7" t="s">
         <v>31</v>
@@ -13889,8 +13895,8 @@
       </c>
     </row>
     <row r="221" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="36"/>
-      <c r="B221" s="38" t="s">
+      <c r="A221" s="35"/>
+      <c r="B221" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -13958,8 +13964,8 @@
       </c>
     </row>
     <row r="222" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="36"/>
-      <c r="B222" s="39"/>
+      <c r="A222" s="35"/>
+      <c r="B222" s="38"/>
       <c r="C222" s="7" t="s">
         <v>23</v>
       </c>
@@ -14025,8 +14031,8 @@
       </c>
     </row>
     <row r="223" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="36"/>
-      <c r="B223" s="40"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="3" t="s">
         <v>15</v>
       </c>
@@ -14092,7 +14098,7 @@
       </c>
     </row>
     <row r="224" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="36"/>
+      <c r="A224" s="35"/>
       <c r="B224" s="17" t="s">
         <v>33</v>
       </c>
@@ -14161,7 +14167,7 @@
       </c>
     </row>
     <row r="225" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="36"/>
+      <c r="A225" s="35"/>
       <c r="B225" s="19"/>
       <c r="C225" s="3" t="s">
         <v>23</v>
@@ -14228,7 +14234,7 @@
       </c>
     </row>
     <row r="226" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="36"/>
+      <c r="A226" s="35"/>
       <c r="B226" s="17" t="s">
         <v>34</v>
       </c>
@@ -14297,7 +14303,7 @@
       </c>
     </row>
     <row r="227" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="37"/>
+      <c r="A227" s="36"/>
       <c r="B227" s="19"/>
       <c r="C227" s="3" t="s">
         <v>23</v>
@@ -14366,7 +14372,7 @@
     <row r="228" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="229" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="230" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="33" t="s">
+      <c r="A230" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B230" s="20" t="s">
@@ -14399,7 +14405,7 @@
       <c r="W230" s="29"/>
     </row>
     <row r="231" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="34"/>
+      <c r="A231" s="33"/>
       <c r="B231" s="21"/>
       <c r="C231" s="23"/>
       <c r="D231" s="1" t="s">
@@ -14737,7 +14743,7 @@
     </row>
     <row r="236" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18"/>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C236" s="3" t="s">
@@ -14806,7 +14812,7 @@
     </row>
     <row r="237" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
-      <c r="B237" s="39"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="7" t="s">
         <v>23</v>
       </c>
@@ -14873,7 +14879,7 @@
     </row>
     <row r="238" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
-      <c r="B238" s="40"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="3" t="s">
         <v>15</v>
       </c>
@@ -15213,7 +15219,7 @@
     <row r="243" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="244" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="33" t="s">
+      <c r="A245" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B245" s="20" t="s">
@@ -15246,7 +15252,7 @@
       <c r="W245" s="29"/>
     </row>
     <row r="246" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="34"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="21"/>
       <c r="C246" s="23"/>
       <c r="D246" s="1" t="s">
@@ -15311,7 +15317,7 @@
       </c>
     </row>
     <row r="247" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="44" t="s">
+      <c r="A247" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B247" s="17" t="s">
@@ -15382,7 +15388,7 @@
       </c>
     </row>
     <row r="248" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="45"/>
+      <c r="A248" s="44"/>
       <c r="B248" s="18"/>
       <c r="C248" s="7" t="s">
         <v>23</v>
@@ -15449,7 +15455,7 @@
       </c>
     </row>
     <row r="249" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="45"/>
+      <c r="A249" s="44"/>
       <c r="B249" s="18"/>
       <c r="C249" s="3" t="s">
         <v>15</v>
@@ -15516,7 +15522,7 @@
       </c>
     </row>
     <row r="250" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="45"/>
+      <c r="A250" s="44"/>
       <c r="B250" s="19"/>
       <c r="C250" s="7" t="s">
         <v>31</v>
@@ -15583,8 +15589,8 @@
       </c>
     </row>
     <row r="251" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="45"/>
-      <c r="B251" s="38" t="s">
+      <c r="A251" s="44"/>
+      <c r="B251" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C251" s="3" t="s">
@@ -15652,8 +15658,8 @@
       </c>
     </row>
     <row r="252" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="45"/>
-      <c r="B252" s="39"/>
+      <c r="A252" s="44"/>
+      <c r="B252" s="38"/>
       <c r="C252" s="7" t="s">
         <v>23</v>
       </c>
@@ -15719,8 +15725,8 @@
       </c>
     </row>
     <row r="253" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="45"/>
-      <c r="B253" s="40"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="3" t="s">
         <v>15</v>
       </c>
@@ -15786,7 +15792,7 @@
       </c>
     </row>
     <row r="254" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="45"/>
+      <c r="A254" s="44"/>
       <c r="B254" s="17" t="s">
         <v>33</v>
       </c>
@@ -15855,7 +15861,7 @@
       </c>
     </row>
     <row r="255" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="45"/>
+      <c r="A255" s="44"/>
       <c r="B255" s="19"/>
       <c r="C255" s="3" t="s">
         <v>23</v>
@@ -15922,7 +15928,7 @@
       </c>
     </row>
     <row r="256" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="45"/>
+      <c r="A256" s="44"/>
       <c r="B256" s="17" t="s">
         <v>34</v>
       </c>
@@ -15991,7 +15997,7 @@
       </c>
     </row>
     <row r="257" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="46"/>
+      <c r="A257" s="45"/>
       <c r="B257" s="19"/>
       <c r="C257" s="3" t="s">
         <v>23</v>
@@ -16060,7 +16066,7 @@
     <row r="258" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="259" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="260" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="33" t="s">
+      <c r="A260" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B260" s="20" t="s">
@@ -16093,7 +16099,7 @@
       <c r="W260" s="29"/>
     </row>
     <row r="261" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="34"/>
+      <c r="A261" s="33"/>
       <c r="B261" s="21"/>
       <c r="C261" s="23"/>
       <c r="D261" s="1" t="s">
@@ -16158,7 +16164,7 @@
       </c>
     </row>
     <row r="262" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="35" t="s">
+      <c r="A262" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B262" s="17" t="s">
@@ -16229,7 +16235,7 @@
       </c>
     </row>
     <row r="263" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="36"/>
+      <c r="A263" s="35"/>
       <c r="B263" s="18"/>
       <c r="C263" s="7" t="s">
         <v>23</v>
@@ -16296,7 +16302,7 @@
       </c>
     </row>
     <row r="264" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="36"/>
+      <c r="A264" s="35"/>
       <c r="B264" s="18"/>
       <c r="C264" s="3" t="s">
         <v>15</v>
@@ -16363,7 +16369,7 @@
       </c>
     </row>
     <row r="265" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="36"/>
+      <c r="A265" s="35"/>
       <c r="B265" s="19"/>
       <c r="C265" s="7" t="s">
         <v>31</v>
@@ -16430,8 +16436,8 @@
       </c>
     </row>
     <row r="266" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="36"/>
-      <c r="B266" s="38" t="s">
+      <c r="A266" s="35"/>
+      <c r="B266" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C266" s="3" t="s">
@@ -16499,8 +16505,8 @@
       </c>
     </row>
     <row r="267" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="36"/>
-      <c r="B267" s="39"/>
+      <c r="A267" s="35"/>
+      <c r="B267" s="38"/>
       <c r="C267" s="7" t="s">
         <v>23</v>
       </c>
@@ -16566,8 +16572,8 @@
       </c>
     </row>
     <row r="268" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="36"/>
-      <c r="B268" s="40"/>
+      <c r="A268" s="35"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="3" t="s">
         <v>15</v>
       </c>
@@ -16633,7 +16639,7 @@
       </c>
     </row>
     <row r="269" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="36"/>
+      <c r="A269" s="35"/>
       <c r="B269" s="17" t="s">
         <v>33</v>
       </c>
@@ -16702,7 +16708,7 @@
       </c>
     </row>
     <row r="270" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="36"/>
+      <c r="A270" s="35"/>
       <c r="B270" s="19"/>
       <c r="C270" s="3" t="s">
         <v>23</v>
@@ -16769,7 +16775,7 @@
       </c>
     </row>
     <row r="271" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="36"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="17" t="s">
         <v>34</v>
       </c>
@@ -16838,7 +16844,7 @@
       </c>
     </row>
     <row r="272" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="37"/>
+      <c r="A272" s="36"/>
       <c r="B272" s="19"/>
       <c r="C272" s="3" t="s">
         <v>23</v>
@@ -16907,7 +16913,7 @@
     <row r="273" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="274" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="275" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="33" t="s">
+      <c r="A275" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B275" s="20" t="s">
@@ -16940,7 +16946,7 @@
       <c r="W275" s="29"/>
     </row>
     <row r="276" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="34"/>
+      <c r="A276" s="33"/>
       <c r="B276" s="21"/>
       <c r="C276" s="23"/>
       <c r="D276" s="1" t="s">
@@ -17005,7 +17011,7 @@
       </c>
     </row>
     <row r="277" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="35" t="s">
+      <c r="A277" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B277" s="17" t="s">
@@ -17076,7 +17082,7 @@
       </c>
     </row>
     <row r="278" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="36"/>
+      <c r="A278" s="35"/>
       <c r="B278" s="18"/>
       <c r="C278" s="7" t="s">
         <v>23</v>
@@ -17143,7 +17149,7 @@
       </c>
     </row>
     <row r="279" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="36"/>
+      <c r="A279" s="35"/>
       <c r="B279" s="18"/>
       <c r="C279" s="3" t="s">
         <v>15</v>
@@ -17210,7 +17216,7 @@
       </c>
     </row>
     <row r="280" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="36"/>
+      <c r="A280" s="35"/>
       <c r="B280" s="19"/>
       <c r="C280" s="7" t="s">
         <v>31</v>
@@ -17277,8 +17283,8 @@
       </c>
     </row>
     <row r="281" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="36"/>
-      <c r="B281" s="38" t="s">
+      <c r="A281" s="35"/>
+      <c r="B281" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C281" s="3" t="s">
@@ -17346,8 +17352,8 @@
       </c>
     </row>
     <row r="282" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="36"/>
-      <c r="B282" s="39"/>
+      <c r="A282" s="35"/>
+      <c r="B282" s="38"/>
       <c r="C282" s="7" t="s">
         <v>23</v>
       </c>
@@ -17413,8 +17419,8 @@
       </c>
     </row>
     <row r="283" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="36"/>
-      <c r="B283" s="40"/>
+      <c r="A283" s="35"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="3" t="s">
         <v>15</v>
       </c>
@@ -17480,7 +17486,7 @@
       </c>
     </row>
     <row r="284" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="36"/>
+      <c r="A284" s="35"/>
       <c r="B284" s="17" t="s">
         <v>33</v>
       </c>
@@ -17549,7 +17555,7 @@
       </c>
     </row>
     <row r="285" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="36"/>
+      <c r="A285" s="35"/>
       <c r="B285" s="19"/>
       <c r="C285" s="3" t="s">
         <v>23</v>
@@ -17616,7 +17622,7 @@
       </c>
     </row>
     <row r="286" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="36"/>
+      <c r="A286" s="35"/>
       <c r="B286" s="17" t="s">
         <v>34</v>
       </c>
@@ -17685,7 +17691,7 @@
       </c>
     </row>
     <row r="287" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="37"/>
+      <c r="A287" s="36"/>
       <c r="B287" s="19"/>
       <c r="C287" s="3" t="s">
         <v>23</v>
@@ -17754,7 +17760,7 @@
     <row r="288" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="289" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="290" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="33" t="s">
+      <c r="A290" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B290" s="20" t="s">
@@ -17787,7 +17793,7 @@
       <c r="W290" s="29"/>
     </row>
     <row r="291" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="34"/>
+      <c r="A291" s="33"/>
       <c r="B291" s="21"/>
       <c r="C291" s="23"/>
       <c r="D291" s="1" t="s">
@@ -17852,7 +17858,7 @@
       </c>
     </row>
     <row r="292" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="35" t="s">
+      <c r="A292" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B292" s="17" t="s">
@@ -17923,7 +17929,7 @@
       </c>
     </row>
     <row r="293" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="36"/>
+      <c r="A293" s="35"/>
       <c r="B293" s="18"/>
       <c r="C293" s="7" t="s">
         <v>23</v>
@@ -17990,7 +17996,7 @@
       </c>
     </row>
     <row r="294" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="36"/>
+      <c r="A294" s="35"/>
       <c r="B294" s="18"/>
       <c r="C294" s="3" t="s">
         <v>15</v>
@@ -18057,7 +18063,7 @@
       </c>
     </row>
     <row r="295" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="36"/>
+      <c r="A295" s="35"/>
       <c r="B295" s="19"/>
       <c r="C295" s="7" t="s">
         <v>31</v>
@@ -18124,8 +18130,8 @@
       </c>
     </row>
     <row r="296" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="36"/>
-      <c r="B296" s="38" t="s">
+      <c r="A296" s="35"/>
+      <c r="B296" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C296" s="3" t="s">
@@ -18193,8 +18199,8 @@
       </c>
     </row>
     <row r="297" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="36"/>
-      <c r="B297" s="39"/>
+      <c r="A297" s="35"/>
+      <c r="B297" s="38"/>
       <c r="C297" s="7" t="s">
         <v>23</v>
       </c>
@@ -18260,8 +18266,8 @@
       </c>
     </row>
     <row r="298" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="36"/>
-      <c r="B298" s="40"/>
+      <c r="A298" s="35"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="3" t="s">
         <v>15</v>
       </c>
@@ -18327,7 +18333,7 @@
       </c>
     </row>
     <row r="299" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="36"/>
+      <c r="A299" s="35"/>
       <c r="B299" s="17" t="s">
         <v>33</v>
       </c>
@@ -18396,7 +18402,7 @@
       </c>
     </row>
     <row r="300" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="36"/>
+      <c r="A300" s="35"/>
       <c r="B300" s="19"/>
       <c r="C300" s="3" t="s">
         <v>23</v>
@@ -18463,7 +18469,7 @@
       </c>
     </row>
     <row r="301" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="36"/>
+      <c r="A301" s="35"/>
       <c r="B301" s="17" t="s">
         <v>34</v>
       </c>
@@ -18532,7 +18538,7 @@
       </c>
     </row>
     <row r="302" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="37"/>
+      <c r="A302" s="36"/>
       <c r="B302" s="19"/>
       <c r="C302" s="3" t="s">
         <v>23</v>
@@ -18601,7 +18607,7 @@
     <row r="303" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="304" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="305" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="33" t="s">
+      <c r="A305" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B305" s="20" t="s">
@@ -18634,7 +18640,7 @@
       <c r="W305" s="29"/>
     </row>
     <row r="306" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="34"/>
+      <c r="A306" s="33"/>
       <c r="B306" s="21"/>
       <c r="C306" s="23"/>
       <c r="D306" s="1" t="s">
@@ -18699,7 +18705,7 @@
       </c>
     </row>
     <row r="307" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="35" t="s">
+      <c r="A307" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B307" s="17" t="s">
@@ -18770,7 +18776,7 @@
       </c>
     </row>
     <row r="308" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="36"/>
+      <c r="A308" s="35"/>
       <c r="B308" s="18"/>
       <c r="C308" s="7" t="s">
         <v>23</v>
@@ -18837,7 +18843,7 @@
       </c>
     </row>
     <row r="309" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="36"/>
+      <c r="A309" s="35"/>
       <c r="B309" s="18"/>
       <c r="C309" s="3" t="s">
         <v>15</v>
@@ -18904,7 +18910,7 @@
       </c>
     </row>
     <row r="310" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="36"/>
+      <c r="A310" s="35"/>
       <c r="B310" s="19"/>
       <c r="C310" s="7" t="s">
         <v>31</v>
@@ -18971,8 +18977,8 @@
       </c>
     </row>
     <row r="311" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="36"/>
-      <c r="B311" s="38" t="s">
+      <c r="A311" s="35"/>
+      <c r="B311" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -19040,8 +19046,8 @@
       </c>
     </row>
     <row r="312" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="36"/>
-      <c r="B312" s="39"/>
+      <c r="A312" s="35"/>
+      <c r="B312" s="38"/>
       <c r="C312" s="7" t="s">
         <v>23</v>
       </c>
@@ -19107,8 +19113,8 @@
       </c>
     </row>
     <row r="313" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="36"/>
-      <c r="B313" s="40"/>
+      <c r="A313" s="35"/>
+      <c r="B313" s="39"/>
       <c r="C313" s="3" t="s">
         <v>15</v>
       </c>
@@ -19174,7 +19180,7 @@
       </c>
     </row>
     <row r="314" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="36"/>
+      <c r="A314" s="35"/>
       <c r="B314" s="17" t="s">
         <v>33</v>
       </c>
@@ -19243,7 +19249,7 @@
       </c>
     </row>
     <row r="315" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="36"/>
+      <c r="A315" s="35"/>
       <c r="B315" s="19"/>
       <c r="C315" s="3" t="s">
         <v>23</v>
@@ -19310,7 +19316,7 @@
       </c>
     </row>
     <row r="316" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="36"/>
+      <c r="A316" s="35"/>
       <c r="B316" s="17" t="s">
         <v>34</v>
       </c>
@@ -19379,7 +19385,7 @@
       </c>
     </row>
     <row r="317" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="37"/>
+      <c r="A317" s="36"/>
       <c r="B317" s="19"/>
       <c r="C317" s="3" t="s">
         <v>23</v>
@@ -19448,7 +19454,7 @@
     <row r="318" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="319" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="320" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="33" t="s">
+      <c r="A320" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B320" s="20" t="s">
@@ -19481,7 +19487,7 @@
       <c r="W320" s="29"/>
     </row>
     <row r="321" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="34"/>
+      <c r="A321" s="33"/>
       <c r="B321" s="21"/>
       <c r="C321" s="23"/>
       <c r="D321" s="1" t="s">
@@ -19546,7 +19552,7 @@
       </c>
     </row>
     <row r="322" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="35" t="s">
+      <c r="A322" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B322" s="17" t="s">
@@ -19617,7 +19623,7 @@
       </c>
     </row>
     <row r="323" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="36"/>
+      <c r="A323" s="35"/>
       <c r="B323" s="18"/>
       <c r="C323" s="7" t="s">
         <v>23</v>
@@ -19684,7 +19690,7 @@
       </c>
     </row>
     <row r="324" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="36"/>
+      <c r="A324" s="35"/>
       <c r="B324" s="18"/>
       <c r="C324" s="3" t="s">
         <v>15</v>
@@ -19751,7 +19757,7 @@
       </c>
     </row>
     <row r="325" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="36"/>
+      <c r="A325" s="35"/>
       <c r="B325" s="19"/>
       <c r="C325" s="7" t="s">
         <v>31</v>
@@ -19818,8 +19824,8 @@
       </c>
     </row>
     <row r="326" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="36"/>
-      <c r="B326" s="38" t="s">
+      <c r="A326" s="35"/>
+      <c r="B326" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -19887,8 +19893,8 @@
       </c>
     </row>
     <row r="327" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="36"/>
-      <c r="B327" s="39"/>
+      <c r="A327" s="35"/>
+      <c r="B327" s="38"/>
       <c r="C327" s="7" t="s">
         <v>23</v>
       </c>
@@ -19954,8 +19960,8 @@
       </c>
     </row>
     <row r="328" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="36"/>
-      <c r="B328" s="40"/>
+      <c r="A328" s="35"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="3" t="s">
         <v>15</v>
       </c>
@@ -20021,7 +20027,7 @@
       </c>
     </row>
     <row r="329" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="36"/>
+      <c r="A329" s="35"/>
       <c r="B329" s="17" t="s">
         <v>33</v>
       </c>
@@ -20090,7 +20096,7 @@
       </c>
     </row>
     <row r="330" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="36"/>
+      <c r="A330" s="35"/>
       <c r="B330" s="19"/>
       <c r="C330" s="3" t="s">
         <v>23</v>
@@ -20157,7 +20163,7 @@
       </c>
     </row>
     <row r="331" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="36"/>
+      <c r="A331" s="35"/>
       <c r="B331" s="17" t="s">
         <v>34</v>
       </c>
@@ -20226,7 +20232,7 @@
       </c>
     </row>
     <row r="332" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="37"/>
+      <c r="A332" s="36"/>
       <c r="B332" s="19"/>
       <c r="C332" s="3" t="s">
         <v>23</v>
@@ -20295,7 +20301,7 @@
     <row r="333" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="334" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="335" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="33" t="s">
+      <c r="A335" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B335" s="20" t="s">
@@ -20328,7 +20334,7 @@
       <c r="W335" s="29"/>
     </row>
     <row r="336" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="34"/>
+      <c r="A336" s="33"/>
       <c r="B336" s="21"/>
       <c r="C336" s="23"/>
       <c r="D336" s="1" t="s">
@@ -20393,7 +20399,7 @@
       </c>
     </row>
     <row r="337" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="35" t="s">
+      <c r="A337" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B337" s="17" t="s">
@@ -20464,7 +20470,7 @@
       </c>
     </row>
     <row r="338" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="36"/>
+      <c r="A338" s="35"/>
       <c r="B338" s="18"/>
       <c r="C338" s="7" t="s">
         <v>23</v>
@@ -20531,7 +20537,7 @@
       </c>
     </row>
     <row r="339" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="36"/>
+      <c r="A339" s="35"/>
       <c r="B339" s="18"/>
       <c r="C339" s="3" t="s">
         <v>15</v>
@@ -20598,7 +20604,7 @@
       </c>
     </row>
     <row r="340" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="36"/>
+      <c r="A340" s="35"/>
       <c r="B340" s="19"/>
       <c r="C340" s="7" t="s">
         <v>31</v>
@@ -20665,8 +20671,8 @@
       </c>
     </row>
     <row r="341" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="36"/>
-      <c r="B341" s="38" t="s">
+      <c r="A341" s="35"/>
+      <c r="B341" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -20734,8 +20740,8 @@
       </c>
     </row>
     <row r="342" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="36"/>
-      <c r="B342" s="39"/>
+      <c r="A342" s="35"/>
+      <c r="B342" s="38"/>
       <c r="C342" s="7" t="s">
         <v>23</v>
       </c>
@@ -20801,8 +20807,8 @@
       </c>
     </row>
     <row r="343" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="36"/>
-      <c r="B343" s="40"/>
+      <c r="A343" s="35"/>
+      <c r="B343" s="39"/>
       <c r="C343" s="3" t="s">
         <v>15</v>
       </c>
@@ -20868,7 +20874,7 @@
       </c>
     </row>
     <row r="344" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="36"/>
+      <c r="A344" s="35"/>
       <c r="B344" s="17" t="s">
         <v>33</v>
       </c>
@@ -20937,7 +20943,7 @@
       </c>
     </row>
     <row r="345" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="36"/>
+      <c r="A345" s="35"/>
       <c r="B345" s="19"/>
       <c r="C345" s="3" t="s">
         <v>23</v>
@@ -21004,7 +21010,7 @@
       </c>
     </row>
     <row r="346" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="36"/>
+      <c r="A346" s="35"/>
       <c r="B346" s="17" t="s">
         <v>34</v>
       </c>
@@ -21073,7 +21079,7 @@
       </c>
     </row>
     <row r="347" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="37"/>
+      <c r="A347" s="36"/>
       <c r="B347" s="19"/>
       <c r="C347" s="3" t="s">
         <v>23</v>
@@ -21142,7 +21148,7 @@
     <row r="348" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="349" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="350" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="33" t="s">
+      <c r="A350" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B350" s="20" t="s">
@@ -21175,7 +21181,7 @@
       <c r="W350" s="29"/>
     </row>
     <row r="351" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="34"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="21"/>
       <c r="C351" s="23"/>
       <c r="D351" s="1" t="s">
@@ -21240,7 +21246,7 @@
       </c>
     </row>
     <row r="352" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="35" t="s">
+      <c r="A352" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="17" t="s">
@@ -21311,7 +21317,7 @@
       </c>
     </row>
     <row r="353" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="36"/>
+      <c r="A353" s="35"/>
       <c r="B353" s="18"/>
       <c r="C353" s="7" t="s">
         <v>23</v>
@@ -21378,7 +21384,7 @@
       </c>
     </row>
     <row r="354" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="36"/>
+      <c r="A354" s="35"/>
       <c r="B354" s="18"/>
       <c r="C354" s="3" t="s">
         <v>15</v>
@@ -21445,7 +21451,7 @@
       </c>
     </row>
     <row r="355" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="36"/>
+      <c r="A355" s="35"/>
       <c r="B355" s="19"/>
       <c r="C355" s="7" t="s">
         <v>31</v>
@@ -21512,8 +21518,8 @@
       </c>
     </row>
     <row r="356" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="36"/>
-      <c r="B356" s="38" t="s">
+      <c r="A356" s="35"/>
+      <c r="B356" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C356" s="3" t="s">
@@ -21581,8 +21587,8 @@
       </c>
     </row>
     <row r="357" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="36"/>
-      <c r="B357" s="39"/>
+      <c r="A357" s="35"/>
+      <c r="B357" s="38"/>
       <c r="C357" s="7" t="s">
         <v>23</v>
       </c>
@@ -21648,8 +21654,8 @@
       </c>
     </row>
     <row r="358" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="36"/>
-      <c r="B358" s="40"/>
+      <c r="A358" s="35"/>
+      <c r="B358" s="39"/>
       <c r="C358" s="3" t="s">
         <v>15</v>
       </c>
@@ -21715,7 +21721,7 @@
       </c>
     </row>
     <row r="359" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="36"/>
+      <c r="A359" s="35"/>
       <c r="B359" s="17" t="s">
         <v>33</v>
       </c>
@@ -21784,7 +21790,7 @@
       </c>
     </row>
     <row r="360" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="36"/>
+      <c r="A360" s="35"/>
       <c r="B360" s="19"/>
       <c r="C360" s="3" t="s">
         <v>23</v>
@@ -21851,7 +21857,7 @@
       </c>
     </row>
     <row r="361" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="36"/>
+      <c r="A361" s="35"/>
       <c r="B361" s="17" t="s">
         <v>34</v>
       </c>
@@ -21920,7 +21926,7 @@
       </c>
     </row>
     <row r="362" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="37"/>
+      <c r="A362" s="36"/>
       <c r="B362" s="19"/>
       <c r="C362" s="3" t="s">
         <v>23</v>
@@ -21989,7 +21995,7 @@
     <row r="363" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="364" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="365" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="33" t="s">
+      <c r="A365" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B365" s="20" t="s">
@@ -22022,7 +22028,7 @@
       <c r="W365" s="29"/>
     </row>
     <row r="366" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="34"/>
+      <c r="A366" s="33"/>
       <c r="B366" s="21"/>
       <c r="C366" s="23"/>
       <c r="D366" s="1" t="s">
@@ -22360,7 +22366,7 @@
     </row>
     <row r="371" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="18"/>
-      <c r="B371" s="38" t="s">
+      <c r="B371" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C371" s="3" t="s">
@@ -22429,7 +22435,7 @@
     </row>
     <row r="372" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="18"/>
-      <c r="B372" s="39"/>
+      <c r="B372" s="38"/>
       <c r="C372" s="7" t="s">
         <v>23</v>
       </c>
@@ -22496,7 +22502,7 @@
     </row>
     <row r="373" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="18"/>
-      <c r="B373" s="40"/>
+      <c r="B373" s="39"/>
       <c r="C373" s="3" t="s">
         <v>15</v>
       </c>
@@ -22836,7 +22842,7 @@
     <row r="378" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="379" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="380" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="33" t="s">
+      <c r="A380" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B380" s="20" t="s">
@@ -22869,7 +22875,7 @@
       <c r="W380" s="29"/>
     </row>
     <row r="381" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="34"/>
+      <c r="A381" s="33"/>
       <c r="B381" s="21"/>
       <c r="C381" s="23"/>
       <c r="D381" s="1" t="s">
@@ -22934,7 +22940,7 @@
       </c>
     </row>
     <row r="382" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="41" t="s">
+      <c r="A382" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B382" s="17" t="s">
@@ -23005,7 +23011,7 @@
       </c>
     </row>
     <row r="383" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="42"/>
+      <c r="A383" s="41"/>
       <c r="B383" s="18"/>
       <c r="C383" s="7" t="s">
         <v>23</v>
@@ -23072,7 +23078,7 @@
       </c>
     </row>
     <row r="384" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="42"/>
+      <c r="A384" s="41"/>
       <c r="B384" s="18"/>
       <c r="C384" s="3" t="s">
         <v>15</v>
@@ -23139,7 +23145,7 @@
       </c>
     </row>
     <row r="385" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="42"/>
+      <c r="A385" s="41"/>
       <c r="B385" s="19"/>
       <c r="C385" s="7" t="s">
         <v>31</v>
@@ -23206,8 +23212,8 @@
       </c>
     </row>
     <row r="386" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="42"/>
-      <c r="B386" s="38" t="s">
+      <c r="A386" s="41"/>
+      <c r="B386" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C386" s="3" t="s">
@@ -23275,8 +23281,8 @@
       </c>
     </row>
     <row r="387" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="42"/>
-      <c r="B387" s="39"/>
+      <c r="A387" s="41"/>
+      <c r="B387" s="38"/>
       <c r="C387" s="7" t="s">
         <v>23</v>
       </c>
@@ -23342,8 +23348,8 @@
       </c>
     </row>
     <row r="388" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="42"/>
-      <c r="B388" s="40"/>
+      <c r="A388" s="41"/>
+      <c r="B388" s="39"/>
       <c r="C388" s="3" t="s">
         <v>15</v>
       </c>
@@ -23409,7 +23415,7 @@
       </c>
     </row>
     <row r="389" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="42"/>
+      <c r="A389" s="41"/>
       <c r="B389" s="17" t="s">
         <v>33</v>
       </c>
@@ -23478,7 +23484,7 @@
       </c>
     </row>
     <row r="390" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="42"/>
+      <c r="A390" s="41"/>
       <c r="B390" s="19"/>
       <c r="C390" s="3" t="s">
         <v>23</v>
@@ -23545,7 +23551,7 @@
       </c>
     </row>
     <row r="391" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="42"/>
+      <c r="A391" s="41"/>
       <c r="B391" s="17" t="s">
         <v>34</v>
       </c>
@@ -23614,7 +23620,7 @@
       </c>
     </row>
     <row r="392" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="43"/>
+      <c r="A392" s="42"/>
       <c r="B392" s="19"/>
       <c r="C392" s="3" t="s">
         <v>23</v>
@@ -23683,7 +23689,7 @@
     <row r="393" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="394" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="395" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="33" t="s">
+      <c r="A395" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B395" s="20" t="s">
@@ -23716,7 +23722,7 @@
       <c r="W395" s="29"/>
     </row>
     <row r="396" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="34"/>
+      <c r="A396" s="33"/>
       <c r="B396" s="21"/>
       <c r="C396" s="23"/>
       <c r="D396" s="1" t="s">
@@ -23781,7 +23787,7 @@
       </c>
     </row>
     <row r="397" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="35" t="s">
+      <c r="A397" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B397" s="17" t="s">
@@ -23852,7 +23858,7 @@
       </c>
     </row>
     <row r="398" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="36"/>
+      <c r="A398" s="35"/>
       <c r="B398" s="18"/>
       <c r="C398" s="7" t="s">
         <v>23</v>
@@ -23919,7 +23925,7 @@
       </c>
     </row>
     <row r="399" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="36"/>
+      <c r="A399" s="35"/>
       <c r="B399" s="18"/>
       <c r="C399" s="3" t="s">
         <v>15</v>
@@ -23986,7 +23992,7 @@
       </c>
     </row>
     <row r="400" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="36"/>
+      <c r="A400" s="35"/>
       <c r="B400" s="19"/>
       <c r="C400" s="7" t="s">
         <v>31</v>
@@ -24053,8 +24059,8 @@
       </c>
     </row>
     <row r="401" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="36"/>
-      <c r="B401" s="38" t="s">
+      <c r="A401" s="35"/>
+      <c r="B401" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C401" s="3" t="s">
@@ -24122,8 +24128,8 @@
       </c>
     </row>
     <row r="402" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="36"/>
-      <c r="B402" s="39"/>
+      <c r="A402" s="35"/>
+      <c r="B402" s="38"/>
       <c r="C402" s="7" t="s">
         <v>23</v>
       </c>
@@ -24189,8 +24195,8 @@
       </c>
     </row>
     <row r="403" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="36"/>
-      <c r="B403" s="40"/>
+      <c r="A403" s="35"/>
+      <c r="B403" s="39"/>
       <c r="C403" s="3" t="s">
         <v>15</v>
       </c>
@@ -24256,7 +24262,7 @@
       </c>
     </row>
     <row r="404" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="36"/>
+      <c r="A404" s="35"/>
       <c r="B404" s="17" t="s">
         <v>33</v>
       </c>
@@ -24325,7 +24331,7 @@
       </c>
     </row>
     <row r="405" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="36"/>
+      <c r="A405" s="35"/>
       <c r="B405" s="19"/>
       <c r="C405" s="3" t="s">
         <v>23</v>
@@ -24392,7 +24398,7 @@
       </c>
     </row>
     <row r="406" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="36"/>
+      <c r="A406" s="35"/>
       <c r="B406" s="17" t="s">
         <v>34</v>
       </c>
@@ -24461,7 +24467,7 @@
       </c>
     </row>
     <row r="407" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="37"/>
+      <c r="A407" s="36"/>
       <c r="B407" s="19"/>
       <c r="C407" s="3" t="s">
         <v>23</v>
@@ -24530,7 +24536,7 @@
     <row r="408" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="409" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="410" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="33" t="s">
+      <c r="A410" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B410" s="20" t="s">
@@ -24563,7 +24569,7 @@
       <c r="W410" s="29"/>
     </row>
     <row r="411" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="34"/>
+      <c r="A411" s="33"/>
       <c r="B411" s="21"/>
       <c r="C411" s="23"/>
       <c r="D411" s="1" t="s">
@@ -24628,7 +24634,7 @@
       </c>
     </row>
     <row r="412" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="47" t="s">
+      <c r="A412" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B412" s="17" t="s">
@@ -24699,7 +24705,7 @@
       </c>
     </row>
     <row r="413" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="48"/>
+      <c r="A413" s="47"/>
       <c r="B413" s="18"/>
       <c r="C413" s="7" t="s">
         <v>23</v>
@@ -24766,7 +24772,7 @@
       </c>
     </row>
     <row r="414" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="48"/>
+      <c r="A414" s="47"/>
       <c r="B414" s="18"/>
       <c r="C414" s="3" t="s">
         <v>15</v>
@@ -24833,7 +24839,7 @@
       </c>
     </row>
     <row r="415" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="48"/>
+      <c r="A415" s="47"/>
       <c r="B415" s="19"/>
       <c r="C415" s="7" t="s">
         <v>31</v>
@@ -24900,8 +24906,8 @@
       </c>
     </row>
     <row r="416" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="48"/>
-      <c r="B416" s="38" t="s">
+      <c r="A416" s="47"/>
+      <c r="B416" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C416" s="3" t="s">
@@ -24969,8 +24975,8 @@
       </c>
     </row>
     <row r="417" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="48"/>
-      <c r="B417" s="39"/>
+      <c r="A417" s="47"/>
+      <c r="B417" s="38"/>
       <c r="C417" s="7" t="s">
         <v>23</v>
       </c>
@@ -25036,8 +25042,8 @@
       </c>
     </row>
     <row r="418" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="48"/>
-      <c r="B418" s="40"/>
+      <c r="A418" s="47"/>
+      <c r="B418" s="39"/>
       <c r="C418" s="3" t="s">
         <v>15</v>
       </c>
@@ -25103,7 +25109,7 @@
       </c>
     </row>
     <row r="419" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="48"/>
+      <c r="A419" s="47"/>
       <c r="B419" s="17" t="s">
         <v>33</v>
       </c>
@@ -25172,7 +25178,7 @@
       </c>
     </row>
     <row r="420" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="48"/>
+      <c r="A420" s="47"/>
       <c r="B420" s="19"/>
       <c r="C420" s="3" t="s">
         <v>23</v>
@@ -25239,7 +25245,7 @@
       </c>
     </row>
     <row r="421" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="48"/>
+      <c r="A421" s="47"/>
       <c r="B421" s="17" t="s">
         <v>34</v>
       </c>
@@ -25308,7 +25314,7 @@
       </c>
     </row>
     <row r="422" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="49"/>
+      <c r="A422" s="48"/>
       <c r="B422" s="19"/>
       <c r="C422" s="3" t="s">
         <v>23</v>
@@ -25377,7 +25383,7 @@
     <row r="423" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="424" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="425" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="33" t="s">
+      <c r="A425" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B425" s="20" t="s">
@@ -25410,7 +25416,7 @@
       <c r="W425" s="29"/>
     </row>
     <row r="426" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="34"/>
+      <c r="A426" s="33"/>
       <c r="B426" s="21"/>
       <c r="C426" s="23"/>
       <c r="D426" s="1" t="s">
@@ -25475,7 +25481,7 @@
       </c>
     </row>
     <row r="427" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="41" t="s">
+      <c r="A427" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B427" s="17" t="s">
@@ -25546,7 +25552,7 @@
       </c>
     </row>
     <row r="428" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="42"/>
+      <c r="A428" s="41"/>
       <c r="B428" s="18"/>
       <c r="C428" s="7" t="s">
         <v>23</v>
@@ -25613,7 +25619,7 @@
       </c>
     </row>
     <row r="429" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="42"/>
+      <c r="A429" s="41"/>
       <c r="B429" s="18"/>
       <c r="C429" s="3" t="s">
         <v>15</v>
@@ -25680,7 +25686,7 @@
       </c>
     </row>
     <row r="430" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="42"/>
+      <c r="A430" s="41"/>
       <c r="B430" s="19"/>
       <c r="C430" s="7" t="s">
         <v>31</v>
@@ -25747,8 +25753,8 @@
       </c>
     </row>
     <row r="431" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="42"/>
-      <c r="B431" s="38" t="s">
+      <c r="A431" s="41"/>
+      <c r="B431" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C431" s="3" t="s">
@@ -25816,8 +25822,8 @@
       </c>
     </row>
     <row r="432" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="42"/>
-      <c r="B432" s="39"/>
+      <c r="A432" s="41"/>
+      <c r="B432" s="38"/>
       <c r="C432" s="7" t="s">
         <v>23</v>
       </c>
@@ -25883,8 +25889,8 @@
       </c>
     </row>
     <row r="433" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="42"/>
-      <c r="B433" s="40"/>
+      <c r="A433" s="41"/>
+      <c r="B433" s="39"/>
       <c r="C433" s="3" t="s">
         <v>15</v>
       </c>
@@ -25950,7 +25956,7 @@
       </c>
     </row>
     <row r="434" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="42"/>
+      <c r="A434" s="41"/>
       <c r="B434" s="17" t="s">
         <v>33</v>
       </c>
@@ -26019,7 +26025,7 @@
       </c>
     </row>
     <row r="435" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="42"/>
+      <c r="A435" s="41"/>
       <c r="B435" s="19"/>
       <c r="C435" s="3" t="s">
         <v>23</v>
@@ -26086,7 +26092,7 @@
       </c>
     </row>
     <row r="436" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="42"/>
+      <c r="A436" s="41"/>
       <c r="B436" s="17" t="s">
         <v>34</v>
       </c>
@@ -26155,7 +26161,7 @@
       </c>
     </row>
     <row r="437" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="43"/>
+      <c r="A437" s="42"/>
       <c r="B437" s="19"/>
       <c r="C437" s="3" t="s">
         <v>23</v>
@@ -26224,7 +26230,7 @@
     <row r="438" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="439" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="440" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="33" t="s">
+      <c r="A440" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B440" s="20" t="s">
@@ -26257,7 +26263,7 @@
       <c r="W440" s="29"/>
     </row>
     <row r="441" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="34"/>
+      <c r="A441" s="33"/>
       <c r="B441" s="21"/>
       <c r="C441" s="23"/>
       <c r="D441" s="1" t="s">
@@ -26322,7 +26328,7 @@
       </c>
     </row>
     <row r="442" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="35" t="s">
+      <c r="A442" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B442" s="17" t="s">
@@ -26393,7 +26399,7 @@
       </c>
     </row>
     <row r="443" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="36"/>
+      <c r="A443" s="35"/>
       <c r="B443" s="18"/>
       <c r="C443" s="7" t="s">
         <v>23</v>
@@ -26460,7 +26466,7 @@
       </c>
     </row>
     <row r="444" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="36"/>
+      <c r="A444" s="35"/>
       <c r="B444" s="18"/>
       <c r="C444" s="3" t="s">
         <v>15</v>
@@ -26527,7 +26533,7 @@
       </c>
     </row>
     <row r="445" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="36"/>
+      <c r="A445" s="35"/>
       <c r="B445" s="19"/>
       <c r="C445" s="7" t="s">
         <v>31</v>
@@ -26594,8 +26600,8 @@
       </c>
     </row>
     <row r="446" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="36"/>
-      <c r="B446" s="38" t="s">
+      <c r="A446" s="35"/>
+      <c r="B446" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C446" s="3" t="s">
@@ -26663,8 +26669,8 @@
       </c>
     </row>
     <row r="447" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="36"/>
-      <c r="B447" s="39"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="38"/>
       <c r="C447" s="7" t="s">
         <v>23</v>
       </c>
@@ -26730,8 +26736,8 @@
       </c>
     </row>
     <row r="448" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="36"/>
-      <c r="B448" s="40"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="39"/>
       <c r="C448" s="3" t="s">
         <v>15</v>
       </c>
@@ -26797,7 +26803,7 @@
       </c>
     </row>
     <row r="449" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="36"/>
+      <c r="A449" s="35"/>
       <c r="B449" s="17" t="s">
         <v>33</v>
       </c>
@@ -26866,7 +26872,7 @@
       </c>
     </row>
     <row r="450" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="36"/>
+      <c r="A450" s="35"/>
       <c r="B450" s="19"/>
       <c r="C450" s="3" t="s">
         <v>23</v>
@@ -26933,7 +26939,7 @@
       </c>
     </row>
     <row r="451" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="36"/>
+      <c r="A451" s="35"/>
       <c r="B451" s="17" t="s">
         <v>34</v>
       </c>
@@ -27002,7 +27008,7 @@
       </c>
     </row>
     <row r="452" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="37"/>
+      <c r="A452" s="36"/>
       <c r="B452" s="19"/>
       <c r="C452" s="3" t="s">
         <v>23</v>
@@ -27071,7 +27077,7 @@
     <row r="453" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="454" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="455" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="33" t="s">
+      <c r="A455" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B455" s="20" t="s">
@@ -27104,7 +27110,7 @@
       <c r="W455" s="29"/>
     </row>
     <row r="456" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="34"/>
+      <c r="A456" s="33"/>
       <c r="B456" s="21"/>
       <c r="C456" s="23"/>
       <c r="D456" s="1" t="s">
@@ -27169,7 +27175,7 @@
       </c>
     </row>
     <row r="457" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="35" t="s">
+      <c r="A457" s="34" t="s">
         <v>63</v>
       </c>
       <c r="B457" s="17" t="s">
@@ -27240,7 +27246,7 @@
       </c>
     </row>
     <row r="458" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="36"/>
+      <c r="A458" s="35"/>
       <c r="B458" s="18"/>
       <c r="C458" s="7" t="s">
         <v>23</v>
@@ -27307,7 +27313,7 @@
       </c>
     </row>
     <row r="459" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="36"/>
+      <c r="A459" s="35"/>
       <c r="B459" s="18"/>
       <c r="C459" s="3" t="s">
         <v>15</v>
@@ -27374,7 +27380,7 @@
       </c>
     </row>
     <row r="460" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="36"/>
+      <c r="A460" s="35"/>
       <c r="B460" s="19"/>
       <c r="C460" s="7" t="s">
         <v>31</v>
@@ -27441,8 +27447,8 @@
       </c>
     </row>
     <row r="461" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="36"/>
-      <c r="B461" s="38" t="s">
+      <c r="A461" s="35"/>
+      <c r="B461" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C461" s="3" t="s">
@@ -27510,8 +27516,8 @@
       </c>
     </row>
     <row r="462" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="36"/>
-      <c r="B462" s="39"/>
+      <c r="A462" s="35"/>
+      <c r="B462" s="38"/>
       <c r="C462" s="7" t="s">
         <v>23</v>
       </c>
@@ -27577,8 +27583,8 @@
       </c>
     </row>
     <row r="463" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="36"/>
-      <c r="B463" s="40"/>
+      <c r="A463" s="35"/>
+      <c r="B463" s="39"/>
       <c r="C463" s="3" t="s">
         <v>15</v>
       </c>
@@ -27644,7 +27650,7 @@
       </c>
     </row>
     <row r="464" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="36"/>
+      <c r="A464" s="35"/>
       <c r="B464" s="17" t="s">
         <v>33</v>
       </c>
@@ -27713,7 +27719,7 @@
       </c>
     </row>
     <row r="465" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="36"/>
+      <c r="A465" s="35"/>
       <c r="B465" s="19"/>
       <c r="C465" s="3" t="s">
         <v>23</v>
@@ -27780,7 +27786,7 @@
       </c>
     </row>
     <row r="466" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="36"/>
+      <c r="A466" s="35"/>
       <c r="B466" s="17" t="s">
         <v>34</v>
       </c>
@@ -27849,7 +27855,7 @@
       </c>
     </row>
     <row r="467" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="37"/>
+      <c r="A467" s="36"/>
       <c r="B467" s="19"/>
       <c r="C467" s="3" t="s">
         <v>23</v>
@@ -27918,7 +27924,7 @@
     <row r="468" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="469" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="470" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="33" t="s">
+      <c r="A470" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B470" s="20" t="s">
@@ -27951,7 +27957,7 @@
       <c r="W470" s="29"/>
     </row>
     <row r="471" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="34"/>
+      <c r="A471" s="33"/>
       <c r="B471" s="21"/>
       <c r="C471" s="23"/>
       <c r="D471" s="1" t="s">
@@ -28016,7 +28022,7 @@
       </c>
     </row>
     <row r="472" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="35" t="s">
+      <c r="A472" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B472" s="17" t="s">
@@ -28087,7 +28093,7 @@
       </c>
     </row>
     <row r="473" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="36"/>
+      <c r="A473" s="35"/>
       <c r="B473" s="18"/>
       <c r="C473" s="7" t="s">
         <v>23</v>
@@ -28154,7 +28160,7 @@
       </c>
     </row>
     <row r="474" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="36"/>
+      <c r="A474" s="35"/>
       <c r="B474" s="18"/>
       <c r="C474" s="3" t="s">
         <v>15</v>
@@ -28221,7 +28227,7 @@
       </c>
     </row>
     <row r="475" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="36"/>
+      <c r="A475" s="35"/>
       <c r="B475" s="19"/>
       <c r="C475" s="7" t="s">
         <v>31</v>
@@ -28288,8 +28294,8 @@
       </c>
     </row>
     <row r="476" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="36"/>
-      <c r="B476" s="38" t="s">
+      <c r="A476" s="35"/>
+      <c r="B476" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C476" s="3" t="s">
@@ -28357,8 +28363,8 @@
       </c>
     </row>
     <row r="477" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="36"/>
-      <c r="B477" s="39"/>
+      <c r="A477" s="35"/>
+      <c r="B477" s="38"/>
       <c r="C477" s="7" t="s">
         <v>23</v>
       </c>
@@ -28424,8 +28430,8 @@
       </c>
     </row>
     <row r="478" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="36"/>
-      <c r="B478" s="40"/>
+      <c r="A478" s="35"/>
+      <c r="B478" s="39"/>
       <c r="C478" s="3" t="s">
         <v>15</v>
       </c>
@@ -28491,7 +28497,7 @@
       </c>
     </row>
     <row r="479" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="36"/>
+      <c r="A479" s="35"/>
       <c r="B479" s="17" t="s">
         <v>33</v>
       </c>
@@ -28560,7 +28566,7 @@
       </c>
     </row>
     <row r="480" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="36"/>
+      <c r="A480" s="35"/>
       <c r="B480" s="19"/>
       <c r="C480" s="3" t="s">
         <v>23</v>
@@ -28627,7 +28633,7 @@
       </c>
     </row>
     <row r="481" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="36"/>
+      <c r="A481" s="35"/>
       <c r="B481" s="17" t="s">
         <v>34</v>
       </c>
@@ -28696,7 +28702,7 @@
       </c>
     </row>
     <row r="482" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="37"/>
+      <c r="A482" s="36"/>
       <c r="B482" s="19"/>
       <c r="C482" s="3" t="s">
         <v>23</v>
@@ -28765,7 +28771,7 @@
     <row r="483" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="484" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="485" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="33" t="s">
+      <c r="A485" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B485" s="20" t="s">
@@ -28798,7 +28804,7 @@
       <c r="W485" s="29"/>
     </row>
     <row r="486" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="34"/>
+      <c r="A486" s="33"/>
       <c r="B486" s="21"/>
       <c r="C486" s="23"/>
       <c r="D486" s="1" t="s">
@@ -28863,7 +28869,7 @@
       </c>
     </row>
     <row r="487" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="35" t="s">
+      <c r="A487" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B487" s="17" t="s">
@@ -28934,7 +28940,7 @@
       </c>
     </row>
     <row r="488" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="36"/>
+      <c r="A488" s="35"/>
       <c r="B488" s="18"/>
       <c r="C488" s="7" t="s">
         <v>23</v>
@@ -29001,7 +29007,7 @@
       </c>
     </row>
     <row r="489" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="36"/>
+      <c r="A489" s="35"/>
       <c r="B489" s="18"/>
       <c r="C489" s="3" t="s">
         <v>15</v>
@@ -29068,7 +29074,7 @@
       </c>
     </row>
     <row r="490" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="36"/>
+      <c r="A490" s="35"/>
       <c r="B490" s="19"/>
       <c r="C490" s="7" t="s">
         <v>31</v>
@@ -29135,8 +29141,8 @@
       </c>
     </row>
     <row r="491" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="36"/>
-      <c r="B491" s="38" t="s">
+      <c r="A491" s="35"/>
+      <c r="B491" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C491" s="3" t="s">
@@ -29204,8 +29210,8 @@
       </c>
     </row>
     <row r="492" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="36"/>
-      <c r="B492" s="39"/>
+      <c r="A492" s="35"/>
+      <c r="B492" s="38"/>
       <c r="C492" s="7" t="s">
         <v>23</v>
       </c>
@@ -29271,8 +29277,8 @@
       </c>
     </row>
     <row r="493" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="36"/>
-      <c r="B493" s="40"/>
+      <c r="A493" s="35"/>
+      <c r="B493" s="39"/>
       <c r="C493" s="3" t="s">
         <v>15</v>
       </c>
@@ -29338,7 +29344,7 @@
       </c>
     </row>
     <row r="494" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="36"/>
+      <c r="A494" s="35"/>
       <c r="B494" s="17" t="s">
         <v>33</v>
       </c>
@@ -29407,7 +29413,7 @@
       </c>
     </row>
     <row r="495" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="36"/>
+      <c r="A495" s="35"/>
       <c r="B495" s="19"/>
       <c r="C495" s="3" t="s">
         <v>23</v>
@@ -29474,7 +29480,7 @@
       </c>
     </row>
     <row r="496" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="36"/>
+      <c r="A496" s="35"/>
       <c r="B496" s="17" t="s">
         <v>34</v>
       </c>
@@ -29543,7 +29549,7 @@
       </c>
     </row>
     <row r="497" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="37"/>
+      <c r="A497" s="36"/>
       <c r="B497" s="19"/>
       <c r="C497" s="3" t="s">
         <v>23</v>
@@ -29610,32 +29616,32 @@
       </c>
     </row>
     <row r="498" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="56"/>
-      <c r="B498" s="55"/>
+      <c r="A498" s="55"/>
+      <c r="B498" s="54"/>
       <c r="C498" s="7"/>
-      <c r="D498" s="57"/>
-      <c r="E498" s="58"/>
-      <c r="F498" s="59"/>
-      <c r="G498" s="59"/>
-      <c r="H498" s="59"/>
-      <c r="I498" s="59"/>
-      <c r="J498" s="59"/>
-      <c r="K498" s="59"/>
-      <c r="L498" s="60"/>
-      <c r="M498" s="60"/>
-      <c r="N498" s="58"/>
-      <c r="O498" s="58"/>
-      <c r="P498" s="59"/>
-      <c r="Q498" s="59"/>
-      <c r="R498" s="59"/>
-      <c r="S498" s="59"/>
-      <c r="T498" s="59"/>
-      <c r="U498" s="59"/>
-      <c r="V498" s="60"/>
-      <c r="W498" s="60"/>
+      <c r="D498" s="56"/>
+      <c r="E498" s="57"/>
+      <c r="F498" s="58"/>
+      <c r="G498" s="58"/>
+      <c r="H498" s="58"/>
+      <c r="I498" s="58"/>
+      <c r="J498" s="58"/>
+      <c r="K498" s="58"/>
+      <c r="L498" s="59"/>
+      <c r="M498" s="59"/>
+      <c r="N498" s="57"/>
+      <c r="O498" s="57"/>
+      <c r="P498" s="58"/>
+      <c r="Q498" s="58"/>
+      <c r="R498" s="58"/>
+      <c r="S498" s="58"/>
+      <c r="T498" s="58"/>
+      <c r="U498" s="58"/>
+      <c r="V498" s="59"/>
+      <c r="W498" s="59"/>
     </row>
     <row r="499" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="33" t="s">
+      <c r="A499" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B499" s="20" t="s">
@@ -29668,7 +29674,7 @@
       <c r="W499" s="29"/>
     </row>
     <row r="500" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="34"/>
+      <c r="A500" s="33"/>
       <c r="B500" s="21"/>
       <c r="C500" s="23"/>
       <c r="D500" s="1" t="s">
@@ -29733,7 +29739,7 @@
       </c>
     </row>
     <row r="501" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="35" t="s">
+      <c r="A501" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B501" s="17" t="s">
@@ -29804,7 +29810,7 @@
       </c>
     </row>
     <row r="502" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="36"/>
+      <c r="A502" s="35"/>
       <c r="B502" s="18"/>
       <c r="C502" s="7" t="s">
         <v>23</v>
@@ -29871,7 +29877,7 @@
       </c>
     </row>
     <row r="503" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="36"/>
+      <c r="A503" s="35"/>
       <c r="B503" s="18"/>
       <c r="C503" s="3" t="s">
         <v>15</v>
@@ -29938,7 +29944,7 @@
       </c>
     </row>
     <row r="504" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="36"/>
+      <c r="A504" s="35"/>
       <c r="B504" s="19"/>
       <c r="C504" s="7" t="s">
         <v>31</v>
@@ -30005,8 +30011,8 @@
       </c>
     </row>
     <row r="505" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="36"/>
-      <c r="B505" s="38" t="s">
+      <c r="A505" s="35"/>
+      <c r="B505" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C505" s="3" t="s">
@@ -30074,8 +30080,8 @@
       </c>
     </row>
     <row r="506" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="36"/>
-      <c r="B506" s="39"/>
+      <c r="A506" s="35"/>
+      <c r="B506" s="38"/>
       <c r="C506" s="7" t="s">
         <v>23</v>
       </c>
@@ -30141,8 +30147,8 @@
       </c>
     </row>
     <row r="507" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="36"/>
-      <c r="B507" s="40"/>
+      <c r="A507" s="35"/>
+      <c r="B507" s="39"/>
       <c r="C507" s="3" t="s">
         <v>15</v>
       </c>
@@ -30208,7 +30214,7 @@
       </c>
     </row>
     <row r="508" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="36"/>
+      <c r="A508" s="35"/>
       <c r="B508" s="17" t="s">
         <v>33</v>
       </c>
@@ -30277,7 +30283,7 @@
       </c>
     </row>
     <row r="509" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="36"/>
+      <c r="A509" s="35"/>
       <c r="B509" s="19"/>
       <c r="C509" s="3" t="s">
         <v>23</v>
@@ -30344,7 +30350,7 @@
       </c>
     </row>
     <row r="510" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="36"/>
+      <c r="A510" s="35"/>
       <c r="B510" s="17" t="s">
         <v>34</v>
       </c>
@@ -30413,7 +30419,7 @@
       </c>
     </row>
     <row r="511" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="37"/>
+      <c r="A511" s="36"/>
       <c r="B511" s="19"/>
       <c r="C511" s="3" t="s">
         <v>23</v>
@@ -30482,7 +30488,7 @@
     <row r="512" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="513" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="514" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="33" t="s">
+      <c r="A514" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B514" s="20" t="s">
@@ -30515,7 +30521,7 @@
       <c r="W514" s="29"/>
     </row>
     <row r="515" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="34"/>
+      <c r="A515" s="33"/>
       <c r="B515" s="21"/>
       <c r="C515" s="23"/>
       <c r="D515" s="1" t="s">
@@ -30580,7 +30586,7 @@
       </c>
     </row>
     <row r="516" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="35" t="s">
+      <c r="A516" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B516" s="17" t="s">
@@ -30651,7 +30657,7 @@
       </c>
     </row>
     <row r="517" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="36"/>
+      <c r="A517" s="35"/>
       <c r="B517" s="18"/>
       <c r="C517" s="7" t="s">
         <v>23</v>
@@ -30718,7 +30724,7 @@
       </c>
     </row>
     <row r="518" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="36"/>
+      <c r="A518" s="35"/>
       <c r="B518" s="18"/>
       <c r="C518" s="3" t="s">
         <v>15</v>
@@ -30785,7 +30791,7 @@
       </c>
     </row>
     <row r="519" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="36"/>
+      <c r="A519" s="35"/>
       <c r="B519" s="19"/>
       <c r="C519" s="7" t="s">
         <v>31</v>
@@ -30852,8 +30858,8 @@
       </c>
     </row>
     <row r="520" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="36"/>
-      <c r="B520" s="38" t="s">
+      <c r="A520" s="35"/>
+      <c r="B520" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C520" s="3" t="s">
@@ -30921,8 +30927,8 @@
       </c>
     </row>
     <row r="521" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="36"/>
-      <c r="B521" s="39"/>
+      <c r="A521" s="35"/>
+      <c r="B521" s="38"/>
       <c r="C521" s="7" t="s">
         <v>23</v>
       </c>
@@ -30988,8 +30994,8 @@
       </c>
     </row>
     <row r="522" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="36"/>
-      <c r="B522" s="40"/>
+      <c r="A522" s="35"/>
+      <c r="B522" s="39"/>
       <c r="C522" s="3" t="s">
         <v>15</v>
       </c>
@@ -31055,7 +31061,7 @@
       </c>
     </row>
     <row r="523" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="36"/>
+      <c r="A523" s="35"/>
       <c r="B523" s="17" t="s">
         <v>33</v>
       </c>
@@ -31124,7 +31130,7 @@
       </c>
     </row>
     <row r="524" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="36"/>
+      <c r="A524" s="35"/>
       <c r="B524" s="19"/>
       <c r="C524" s="3" t="s">
         <v>23</v>
@@ -31191,7 +31197,7 @@
       </c>
     </row>
     <row r="525" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="36"/>
+      <c r="A525" s="35"/>
       <c r="B525" s="17" t="s">
         <v>34</v>
       </c>
@@ -31260,7 +31266,7 @@
       </c>
     </row>
     <row r="526" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="37"/>
+      <c r="A526" s="36"/>
       <c r="B526" s="19"/>
       <c r="C526" s="3" t="s">
         <v>23</v>
@@ -31329,7 +31335,7 @@
     <row r="527" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="528" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="529" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="33" t="s">
+      <c r="A529" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B529" s="20" t="s">
@@ -31362,7 +31368,7 @@
       <c r="W529" s="29"/>
     </row>
     <row r="530" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="34"/>
+      <c r="A530" s="33"/>
       <c r="B530" s="21"/>
       <c r="C530" s="23"/>
       <c r="D530" s="1" t="s">
@@ -31427,7 +31433,7 @@
       </c>
     </row>
     <row r="531" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="35" t="s">
+      <c r="A531" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B531" s="17" t="s">
@@ -31498,7 +31504,7 @@
       </c>
     </row>
     <row r="532" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="36"/>
+      <c r="A532" s="35"/>
       <c r="B532" s="18"/>
       <c r="C532" s="7" t="s">
         <v>23</v>
@@ -31565,7 +31571,7 @@
       </c>
     </row>
     <row r="533" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="36"/>
+      <c r="A533" s="35"/>
       <c r="B533" s="18"/>
       <c r="C533" s="3" t="s">
         <v>15</v>
@@ -31632,7 +31638,7 @@
       </c>
     </row>
     <row r="534" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="36"/>
+      <c r="A534" s="35"/>
       <c r="B534" s="19"/>
       <c r="C534" s="7" t="s">
         <v>31</v>
@@ -31699,8 +31705,8 @@
       </c>
     </row>
     <row r="535" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="36"/>
-      <c r="B535" s="38" t="s">
+      <c r="A535" s="35"/>
+      <c r="B535" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C535" s="3" t="s">
@@ -31768,8 +31774,8 @@
       </c>
     </row>
     <row r="536" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="36"/>
-      <c r="B536" s="39"/>
+      <c r="A536" s="35"/>
+      <c r="B536" s="38"/>
       <c r="C536" s="7" t="s">
         <v>23</v>
       </c>
@@ -31835,8 +31841,8 @@
       </c>
     </row>
     <row r="537" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="36"/>
-      <c r="B537" s="40"/>
+      <c r="A537" s="35"/>
+      <c r="B537" s="39"/>
       <c r="C537" s="3" t="s">
         <v>15</v>
       </c>
@@ -31902,7 +31908,7 @@
       </c>
     </row>
     <row r="538" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="36"/>
+      <c r="A538" s="35"/>
       <c r="B538" s="17" t="s">
         <v>33</v>
       </c>
@@ -31971,7 +31977,7 @@
       </c>
     </row>
     <row r="539" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="36"/>
+      <c r="A539" s="35"/>
       <c r="B539" s="19"/>
       <c r="C539" s="3" t="s">
         <v>23</v>
@@ -32038,7 +32044,7 @@
       </c>
     </row>
     <row r="540" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="36"/>
+      <c r="A540" s="35"/>
       <c r="B540" s="17" t="s">
         <v>34</v>
       </c>
@@ -32107,7 +32113,7 @@
       </c>
     </row>
     <row r="541" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="37"/>
+      <c r="A541" s="36"/>
       <c r="B541" s="19"/>
       <c r="C541" s="3" t="s">
         <v>23</v>
@@ -32176,7 +32182,7 @@
     <row r="542" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="543" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="544" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="33" t="s">
+      <c r="A544" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B544" s="20" t="s">
@@ -32209,7 +32215,7 @@
       <c r="W544" s="29"/>
     </row>
     <row r="545" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="34"/>
+      <c r="A545" s="33"/>
       <c r="B545" s="21"/>
       <c r="C545" s="23"/>
       <c r="D545" s="1" t="s">
@@ -32274,7 +32280,7 @@
       </c>
     </row>
     <row r="546" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="35" t="s">
+      <c r="A546" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B546" s="17" t="s">
@@ -32345,7 +32351,7 @@
       </c>
     </row>
     <row r="547" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="36"/>
+      <c r="A547" s="35"/>
       <c r="B547" s="18"/>
       <c r="C547" s="7" t="s">
         <v>23</v>
@@ -32412,7 +32418,7 @@
       </c>
     </row>
     <row r="548" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="36"/>
+      <c r="A548" s="35"/>
       <c r="B548" s="18"/>
       <c r="C548" s="3" t="s">
         <v>15</v>
@@ -32479,7 +32485,7 @@
       </c>
     </row>
     <row r="549" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="36"/>
+      <c r="A549" s="35"/>
       <c r="B549" s="19"/>
       <c r="C549" s="7" t="s">
         <v>31</v>
@@ -32546,8 +32552,8 @@
       </c>
     </row>
     <row r="550" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="36"/>
-      <c r="B550" s="38" t="s">
+      <c r="A550" s="35"/>
+      <c r="B550" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C550" s="3" t="s">
@@ -32615,8 +32621,8 @@
       </c>
     </row>
     <row r="551" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="36"/>
-      <c r="B551" s="39"/>
+      <c r="A551" s="35"/>
+      <c r="B551" s="38"/>
       <c r="C551" s="7" t="s">
         <v>23</v>
       </c>
@@ -32682,8 +32688,8 @@
       </c>
     </row>
     <row r="552" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="36"/>
-      <c r="B552" s="40"/>
+      <c r="A552" s="35"/>
+      <c r="B552" s="39"/>
       <c r="C552" s="3" t="s">
         <v>15</v>
       </c>
@@ -32749,7 +32755,7 @@
       </c>
     </row>
     <row r="553" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="36"/>
+      <c r="A553" s="35"/>
       <c r="B553" s="17" t="s">
         <v>33</v>
       </c>
@@ -32818,7 +32824,7 @@
       </c>
     </row>
     <row r="554" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="36"/>
+      <c r="A554" s="35"/>
       <c r="B554" s="19"/>
       <c r="C554" s="3" t="s">
         <v>23</v>
@@ -32885,7 +32891,7 @@
       </c>
     </row>
     <row r="555" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="36"/>
+      <c r="A555" s="35"/>
       <c r="B555" s="17" t="s">
         <v>34</v>
       </c>
@@ -32954,7 +32960,7 @@
       </c>
     </row>
     <row r="556" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="37"/>
+      <c r="A556" s="36"/>
       <c r="B556" s="19"/>
       <c r="C556" s="3" t="s">
         <v>23</v>
@@ -33023,7 +33029,7 @@
     <row r="557" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="558" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="559" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="33" t="s">
+      <c r="A559" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B559" s="20" t="s">
@@ -33056,7 +33062,7 @@
       <c r="W559" s="29"/>
     </row>
     <row r="560" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="34"/>
+      <c r="A560" s="33"/>
       <c r="B560" s="21"/>
       <c r="C560" s="23"/>
       <c r="D560" s="1" t="s">
@@ -33121,7 +33127,7 @@
       </c>
     </row>
     <row r="561" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="35" t="s">
+      <c r="A561" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B561" s="17" t="s">
@@ -33192,7 +33198,7 @@
       </c>
     </row>
     <row r="562" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="36"/>
+      <c r="A562" s="35"/>
       <c r="B562" s="18"/>
       <c r="C562" s="7" t="s">
         <v>23</v>
@@ -33259,7 +33265,7 @@
       </c>
     </row>
     <row r="563" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="36"/>
+      <c r="A563" s="35"/>
       <c r="B563" s="18"/>
       <c r="C563" s="3" t="s">
         <v>15</v>
@@ -33326,7 +33332,7 @@
       </c>
     </row>
     <row r="564" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="36"/>
+      <c r="A564" s="35"/>
       <c r="B564" s="19"/>
       <c r="C564" s="7" t="s">
         <v>31</v>
@@ -33393,8 +33399,8 @@
       </c>
     </row>
     <row r="565" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="36"/>
-      <c r="B565" s="38" t="s">
+      <c r="A565" s="35"/>
+      <c r="B565" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C565" s="3" t="s">
@@ -33462,8 +33468,8 @@
       </c>
     </row>
     <row r="566" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="36"/>
-      <c r="B566" s="39"/>
+      <c r="A566" s="35"/>
+      <c r="B566" s="38"/>
       <c r="C566" s="7" t="s">
         <v>23</v>
       </c>
@@ -33529,8 +33535,8 @@
       </c>
     </row>
     <row r="567" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="36"/>
-      <c r="B567" s="40"/>
+      <c r="A567" s="35"/>
+      <c r="B567" s="39"/>
       <c r="C567" s="3" t="s">
         <v>15</v>
       </c>
@@ -33596,7 +33602,7 @@
       </c>
     </row>
     <row r="568" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="36"/>
+      <c r="A568" s="35"/>
       <c r="B568" s="17" t="s">
         <v>33</v>
       </c>
@@ -33665,7 +33671,7 @@
       </c>
     </row>
     <row r="569" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="36"/>
+      <c r="A569" s="35"/>
       <c r="B569" s="19"/>
       <c r="C569" s="3" t="s">
         <v>23</v>
@@ -33732,7 +33738,7 @@
       </c>
     </row>
     <row r="570" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="36"/>
+      <c r="A570" s="35"/>
       <c r="B570" s="17" t="s">
         <v>34</v>
       </c>
@@ -33801,7 +33807,7 @@
       </c>
     </row>
     <row r="571" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="37"/>
+      <c r="A571" s="36"/>
       <c r="B571" s="19"/>
       <c r="C571" s="3" t="s">
         <v>23</v>
@@ -33870,7 +33876,7 @@
     <row r="572" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="573" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="574" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="33" t="s">
+      <c r="A574" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B574" s="20" t="s">
@@ -33903,7 +33909,7 @@
       <c r="W574" s="29"/>
     </row>
     <row r="575" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="34"/>
+      <c r="A575" s="33"/>
       <c r="B575" s="21"/>
       <c r="C575" s="23"/>
       <c r="D575" s="1" t="s">
@@ -33968,7 +33974,7 @@
       </c>
     </row>
     <row r="576" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="35" t="s">
+      <c r="A576" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B576" s="17" t="s">
@@ -34039,7 +34045,7 @@
       </c>
     </row>
     <row r="577" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="36"/>
+      <c r="A577" s="35"/>
       <c r="B577" s="18"/>
       <c r="C577" s="7" t="s">
         <v>23</v>
@@ -34106,7 +34112,7 @@
       </c>
     </row>
     <row r="578" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="36"/>
+      <c r="A578" s="35"/>
       <c r="B578" s="18"/>
       <c r="C578" s="3" t="s">
         <v>15</v>
@@ -34173,7 +34179,7 @@
       </c>
     </row>
     <row r="579" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="36"/>
+      <c r="A579" s="35"/>
       <c r="B579" s="19"/>
       <c r="C579" s="7" t="s">
         <v>31</v>
@@ -34240,8 +34246,8 @@
       </c>
     </row>
     <row r="580" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="36"/>
-      <c r="B580" s="38" t="s">
+      <c r="A580" s="35"/>
+      <c r="B580" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C580" s="3" t="s">
@@ -34309,8 +34315,8 @@
       </c>
     </row>
     <row r="581" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="36"/>
-      <c r="B581" s="39"/>
+      <c r="A581" s="35"/>
+      <c r="B581" s="38"/>
       <c r="C581" s="7" t="s">
         <v>23</v>
       </c>
@@ -34376,8 +34382,8 @@
       </c>
     </row>
     <row r="582" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="36"/>
-      <c r="B582" s="40"/>
+      <c r="A582" s="35"/>
+      <c r="B582" s="39"/>
       <c r="C582" s="3" t="s">
         <v>15</v>
       </c>
@@ -34443,7 +34449,7 @@
       </c>
     </row>
     <row r="583" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="36"/>
+      <c r="A583" s="35"/>
       <c r="B583" s="17" t="s">
         <v>33</v>
       </c>
@@ -34512,7 +34518,7 @@
       </c>
     </row>
     <row r="584" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="36"/>
+      <c r="A584" s="35"/>
       <c r="B584" s="19"/>
       <c r="C584" s="3" t="s">
         <v>23</v>
@@ -34579,7 +34585,7 @@
       </c>
     </row>
     <row r="585" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="36"/>
+      <c r="A585" s="35"/>
       <c r="B585" s="17" t="s">
         <v>34</v>
       </c>
@@ -34648,7 +34654,7 @@
       </c>
     </row>
     <row r="586" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="37"/>
+      <c r="A586" s="36"/>
       <c r="B586" s="19"/>
       <c r="C586" s="3" t="s">
         <v>23</v>
@@ -34717,7 +34723,7 @@
     <row r="587" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="588" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="589" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="33" t="s">
+      <c r="A589" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B589" s="20" t="s">
@@ -34750,7 +34756,7 @@
       <c r="W589" s="29"/>
     </row>
     <row r="590" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="34"/>
+      <c r="A590" s="33"/>
       <c r="B590" s="21"/>
       <c r="C590" s="23"/>
       <c r="D590" s="1" t="s">
@@ -34815,7 +34821,7 @@
       </c>
     </row>
     <row r="591" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="35" t="s">
+      <c r="A591" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B591" s="17" t="s">
@@ -34886,7 +34892,7 @@
       </c>
     </row>
     <row r="592" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="36"/>
+      <c r="A592" s="35"/>
       <c r="B592" s="18"/>
       <c r="C592" s="7" t="s">
         <v>23</v>
@@ -34953,7 +34959,7 @@
       </c>
     </row>
     <row r="593" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="36"/>
+      <c r="A593" s="35"/>
       <c r="B593" s="18"/>
       <c r="C593" s="3" t="s">
         <v>15</v>
@@ -35020,7 +35026,7 @@
       </c>
     </row>
     <row r="594" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="36"/>
+      <c r="A594" s="35"/>
       <c r="B594" s="19"/>
       <c r="C594" s="7" t="s">
         <v>31</v>
@@ -35087,8 +35093,8 @@
       </c>
     </row>
     <row r="595" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="36"/>
-      <c r="B595" s="38" t="s">
+      <c r="A595" s="35"/>
+      <c r="B595" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C595" s="3" t="s">
@@ -35156,8 +35162,8 @@
       </c>
     </row>
     <row r="596" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="36"/>
-      <c r="B596" s="39"/>
+      <c r="A596" s="35"/>
+      <c r="B596" s="38"/>
       <c r="C596" s="7" t="s">
         <v>23</v>
       </c>
@@ -35223,8 +35229,8 @@
       </c>
     </row>
     <row r="597" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="36"/>
-      <c r="B597" s="40"/>
+      <c r="A597" s="35"/>
+      <c r="B597" s="39"/>
       <c r="C597" s="3" t="s">
         <v>15</v>
       </c>
@@ -35290,7 +35296,7 @@
       </c>
     </row>
     <row r="598" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="36"/>
+      <c r="A598" s="35"/>
       <c r="B598" s="17" t="s">
         <v>33</v>
       </c>
@@ -35359,7 +35365,7 @@
       </c>
     </row>
     <row r="599" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="36"/>
+      <c r="A599" s="35"/>
       <c r="B599" s="19"/>
       <c r="C599" s="3" t="s">
         <v>23</v>
@@ -35426,7 +35432,7 @@
       </c>
     </row>
     <row r="600" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="36"/>
+      <c r="A600" s="35"/>
       <c r="B600" s="17" t="s">
         <v>34</v>
       </c>
@@ -35495,7 +35501,7 @@
       </c>
     </row>
     <row r="601" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="37"/>
+      <c r="A601" s="36"/>
       <c r="B601" s="19"/>
       <c r="C601" s="3" t="s">
         <v>23</v>
@@ -35564,10 +35570,10 @@
     <row r="602" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="603" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="604" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="50" t="s">
+      <c r="A604" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B604" s="52" t="s">
+      <c r="B604" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C604" s="22"/>
@@ -35597,8 +35603,8 @@
       <c r="W604" s="29"/>
     </row>
     <row r="605" spans="1:23" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="51"/>
-      <c r="B605" s="53"/>
+      <c r="A605" s="50"/>
+      <c r="B605" s="52"/>
       <c r="C605" s="23"/>
       <c r="D605" s="1" t="s">
         <v>4</v>
@@ -35662,7 +35668,7 @@
       </c>
     </row>
     <row r="606" spans="1:23" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="35" t="s">
+      <c r="A606" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B606" s="17" t="s">
@@ -35733,7 +35739,7 @@
       </c>
     </row>
     <row r="607" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="36"/>
+      <c r="A607" s="35"/>
       <c r="B607" s="18"/>
       <c r="C607" s="7" t="s">
         <v>23</v>
@@ -35800,7 +35806,7 @@
       </c>
     </row>
     <row r="608" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="36"/>
+      <c r="A608" s="35"/>
       <c r="B608" s="18"/>
       <c r="C608" s="3" t="s">
         <v>15</v>
@@ -35867,7 +35873,7 @@
       </c>
     </row>
     <row r="609" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="36"/>
+      <c r="A609" s="35"/>
       <c r="B609" s="19"/>
       <c r="C609" s="7" t="s">
         <v>31</v>
@@ -35934,8 +35940,8 @@
       </c>
     </row>
     <row r="610" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="36"/>
-      <c r="B610" s="38" t="s">
+      <c r="A610" s="35"/>
+      <c r="B610" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C610" s="3" t="s">
@@ -36003,8 +36009,8 @@
       </c>
     </row>
     <row r="611" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="36"/>
-      <c r="B611" s="39"/>
+      <c r="A611" s="35"/>
+      <c r="B611" s="38"/>
       <c r="C611" s="7" t="s">
         <v>23</v>
       </c>
@@ -36070,8 +36076,8 @@
       </c>
     </row>
     <row r="612" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="36"/>
-      <c r="B612" s="40"/>
+      <c r="A612" s="35"/>
+      <c r="B612" s="39"/>
       <c r="C612" s="3" t="s">
         <v>15</v>
       </c>
@@ -36137,7 +36143,7 @@
       </c>
     </row>
     <row r="613" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="36"/>
+      <c r="A613" s="35"/>
       <c r="B613" s="17" t="s">
         <v>33</v>
       </c>
@@ -36206,7 +36212,7 @@
       </c>
     </row>
     <row r="614" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="36"/>
+      <c r="A614" s="35"/>
       <c r="B614" s="19"/>
       <c r="C614" s="3" t="s">
         <v>23</v>
@@ -36273,7 +36279,7 @@
       </c>
     </row>
     <row r="615" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="36"/>
+      <c r="A615" s="35"/>
       <c r="B615" s="17" t="s">
         <v>34</v>
       </c>
@@ -36342,7 +36348,7 @@
       </c>
     </row>
     <row r="616" spans="1:24" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="37"/>
+      <c r="A616" s="36"/>
       <c r="B616" s="19"/>
       <c r="C616" s="3" t="s">
         <v>23</v>
@@ -36410,32 +36416,32 @@
     </row>
     <row r="617" spans="1:24" ht="7.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="618" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="54" t="s">
+      <c r="A618" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B618" s="54"/>
-      <c r="C618" s="54"/>
-      <c r="D618" s="54"/>
-      <c r="E618" s="54"/>
-      <c r="F618" s="54"/>
-      <c r="G618" s="54"/>
-      <c r="H618" s="54"/>
-      <c r="I618" s="54"/>
-      <c r="J618" s="54"/>
-      <c r="K618" s="54"/>
-      <c r="L618" s="54"/>
-      <c r="M618" s="54"/>
-      <c r="N618" s="54"/>
-      <c r="O618" s="54"/>
-      <c r="P618" s="54"/>
-      <c r="Q618" s="54"/>
-      <c r="R618" s="54"/>
-      <c r="S618" s="54"/>
-      <c r="T618" s="54"/>
-      <c r="U618" s="54"/>
-      <c r="V618" s="54"/>
-      <c r="W618" s="54"/>
-      <c r="X618" s="54"/>
+      <c r="B618" s="53"/>
+      <c r="C618" s="53"/>
+      <c r="D618" s="53"/>
+      <c r="E618" s="53"/>
+      <c r="F618" s="53"/>
+      <c r="G618" s="53"/>
+      <c r="H618" s="53"/>
+      <c r="I618" s="53"/>
+      <c r="J618" s="53"/>
+      <c r="K618" s="53"/>
+      <c r="L618" s="53"/>
+      <c r="M618" s="53"/>
+      <c r="N618" s="53"/>
+      <c r="O618" s="53"/>
+      <c r="P618" s="53"/>
+      <c r="Q618" s="53"/>
+      <c r="R618" s="53"/>
+      <c r="S618" s="53"/>
+      <c r="T618" s="53"/>
+      <c r="U618" s="53"/>
+      <c r="V618" s="53"/>
+      <c r="W618" s="53"/>
+      <c r="X618" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="413">
